--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viriyahinsurance-my.sharepoint.com/personal/niranl_viriyah_co_th/Documents/Desktop/PDPA/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5E8E00EC95C4C97F01F65042E75C9F035356B656" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4617CCE-FFDB-491F-83C6-4259931BA302}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_5E8E00EC95C4C97F01F65042E75C9F035356B656" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C37FF30-A0D1-45D7-870E-374D364A701D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollectionPointList" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,12 +20,24 @@
     <sheet name="HealthCheckLiveness" sheetId="5" r:id="rId5"/>
     <sheet name="HealthCheckReadiness" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="430">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -1002,288 +1014,6 @@
     <t>CollectionPointCustomField Value</t>
   </si>
   <si>
-    <t>กรณีที่ไม่มีข้อมูล จะต้องเพิ่มข้อมูลได้สำเร็จ</t>
-  </si>
-  <si>
-    <t>กรณีที่ข้อมูล จะต้องแก้ไขข้อมูลได้สำเร็จ</t>
-  </si>
-  <si>
-    <t>GC1004_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Authorization </t>
-  </si>
-  <si>
-    <t>GC1004_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ  CurrentUtcOffset </t>
-  </si>
-  <si>
-    <t>GC1004_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ IsCurrentlyDst </t>
-  </si>
-  <si>
-    <t>GC1004_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ AgeRangeCode </t>
-  </si>
-  <si>
-    <t>GC1004_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ CollectionPointGuid </t>
-  </si>
-  <si>
-    <t>GC1004_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ CompanyId </t>
-  </si>
-  <si>
-    <t>GC1004_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ WebSiteId </t>
-  </si>
-  <si>
-    <t>GC1004_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Uid </t>
-  </si>
-  <si>
-    <t>GC1004_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ FullName </t>
-  </si>
-  <si>
-    <t>GC1004_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Email </t>
-  </si>
-  <si>
-    <t>GC1004_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ PhoneNumber </t>
-  </si>
-  <si>
-    <t>GC1004_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ FromBrowser </t>
-  </si>
-  <si>
-    <t>GC1004_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ VerifyType </t>
-  </si>
-  <si>
-    <t>GC1004_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ EventCode </t>
-  </si>
-  <si>
-    <t>GC1004_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ IdCardNumber </t>
-  </si>
-  <si>
-    <t>GC1004_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Expired </t>
-  </si>
-  <si>
-    <t>GC1004_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ ConsentSignature </t>
-  </si>
-  <si>
-    <t>GC1004_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Purpose </t>
-  </si>
-  <si>
-    <t>GC1004_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Purpose PurposeGuid </t>
-  </si>
-  <si>
-    <t>GC1004_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Purpose Active </t>
-  </si>
-  <si>
-    <t>GC1004_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ Purpose Expired </t>
-  </si>
-  <si>
-    <t>GC1004_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ CollectionPointCustomField CollectionPointCustomFieldConfigID </t>
-  </si>
-  <si>
-    <t>GC1004_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่งข้อมูล general consent โดยไม่ระบุ CollectionPointCustomField Value </t>
-  </si>
-  <si>
-    <t>GC1005_001</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Authorization เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_002</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ CurrentUtcOffset เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_003</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ IsCurrentlyDst เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_004</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ AgeRangeCode เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_005</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ CollectionPointGuid เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_006</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ CompanyId เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_007</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ WebSiteId เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_008</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Uid เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_009</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ FullName เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_010</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Email เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_011</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ PhoneNumber เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_012</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ FromBrowser เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_013</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ VerifyType เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_014</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ EventCode เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_015</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ IdCardNumber เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_016</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Expired เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_017</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ ConsentSignature เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_018</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Purpose เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_019</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Purpose PurposeGuid เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_020</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Purpose Active เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_021</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ Purpose Expired เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_022</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ CollectionPointCustomField CollectionPointCustomFieldConfigID เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>GC1005_023</t>
-  </si>
-  <si>
-    <t>ส่งข้อมูล general consent โดยระบุ CollectionPointCustomField Value เป็นค่าว่าง</t>
-  </si>
-  <si>
     <t>{"Status":"Up"}</t>
   </si>
   <si>
@@ -1306,16 +1036,10 @@
   </si>
   <si>
     <t>HL1004_400</t>
-  </si>
-  <si>
-    <t>HL1005_500</t>
   </si>
   <si>
     <t xml:space="preserve">Validate   การแสดงข้อมูลสถานะ โดย Empty value Parameter Header _x000D_
 - Authorization  </t>
-  </si>
-  <si>
-    <t>HL1006_600</t>
   </si>
   <si>
     <t>Validate  การแสดงข้อมูลสถานะ โดย Parameter Invalid Header_x000D_
@@ -1336,18 +1060,471 @@
 - Authorization  </t>
   </si>
   <si>
-    <t>HR1005_500</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate   การแสดงข้อมูลสถานะ โดย Empty value Parameter Header 
 - Authorization  </t>
+  </si>
+  <si>
+    <t>GC1002_000</t>
+  </si>
+  <si>
+    <t>GC1002_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล กรณีมี FullName เป็น Primary key  _x000D_
+Missing tag Parameter Body _x000D_
+- FullName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล กรณีมี Email เป็น Primary key  _x000D_
+Missing tag Parameter Body _x000D_
+- Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล กรณีมี PhoneNumber เป็น Primary key  _x000D_
+Missing tag Parameter Body _x000D_
+- PhoneNumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Header _x000D_
+- Authorization  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  กส่งข้อมูล โดย Missing tag Parameter Header _x000D_
+- CurrentUtcOffset  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Header _x000D_
+- IsCurrentlyDst  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- CompanyId  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- WebSiteId  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Uid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- FullName  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Email  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- PhoneNumber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- FromBrowser  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- VerifyType  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- EventCode  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- IdCardNumber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Expired  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- ConsentSignature  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Purpose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Purpose PurposeGuid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Purpose Active  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- Purpose Expired  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- CollectionPointCustomField CollectionPointCustomFieldConfigID  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Body _x000D_
+- CollectionPointCustomField Value  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Header _x000D_
+- Authorization  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Header _x000D_
+- CurrentUtcOffset  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Header _x000D_
+- IsCurrentlyDst  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- AgeRangeCode  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- CollectionPointGuid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- CompanyId  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- WebSiteId  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Uid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- FullName  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Email  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- PhoneNumber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- FromBrowser  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- VerifyType  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- EventCode  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- IdCardNumber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Expired  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- ConsentSignature  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Purpose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Purpose PurposeGuid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- Purpose Active  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+-  Purpose Expired  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- CollectionPointCustomField CollectionPointCustomFieldConfigID  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Empty value Parameter Body _x000D_
+- CollectionPointCustomField Value  </t>
+  </si>
+  <si>
+    <t>Validate กรณีที่ไม่มีข้อมูลอยู่ในระบบ ระบบจะต้องทำการ insert when CollectionPointGuid value ไม่มีในระบบ and PurposeGuid ไม่มีในระบบ</t>
+  </si>
+  <si>
+    <t>Validate กรณีที่ไม่มีข้อมูลอยู่ในระบบ ระบบจะต้องทำการ insert when CollectionPointGuid value ไม่มีในระบบ and PurposeGuid มีในระบบ</t>
+  </si>
+  <si>
+    <t>Validate กรณีที่มีข้อมูลอยู่ในระบบ ระบบจะต้องทำการ update when CollectionPointGuid value มีในระบบ and PurposeGuid ไม่มีในระบบ</t>
+  </si>
+  <si>
+    <t>GC1003_200</t>
+  </si>
+  <si>
+    <t>GC1003_201</t>
+  </si>
+  <si>
+    <t>GC1005_516</t>
+  </si>
+  <si>
+    <t>GC1005_517</t>
+  </si>
+  <si>
+    <t>GC1005_518</t>
+  </si>
+  <si>
+    <t>GC1005_519</t>
+  </si>
+  <si>
+    <t>GC1005_520</t>
+  </si>
+  <si>
+    <t>GC1005_521</t>
+  </si>
+  <si>
+    <t>GC1005_522</t>
+  </si>
+  <si>
+    <t>GC1006_614</t>
+  </si>
+  <si>
+    <t>GC1006_615</t>
+  </si>
+  <si>
+    <t>GC1006_616</t>
+  </si>
+  <si>
+    <t>GC1006_617</t>
+  </si>
+  <si>
+    <t>GC1006_618</t>
+  </si>
+  <si>
+    <t>GC1006_619</t>
+  </si>
+  <si>
+    <t>GC1006_620</t>
+  </si>
+  <si>
+    <t>GC1006_621</t>
+  </si>
+  <si>
+    <t>GC1006_622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล กรณีมี Uid เป็น Primary key  
+Missing tag Parameter Body 
+- Uid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล กรณีมี IdCardNumber เป็น Primary key  
+Missing tag Parameter Body 
+- IdCardNumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Header 
+- AgeRangeCode  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate  ส่งข้อมูล โดย Missing tag Parameter Header 
+- CollectionPointGuid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate กรณีที่มีข้อมูลอยู่ในระบบ ระบบจะต้องทำการ update when CollectionPointGuid value มีในระบบ and PurposeGuid มีในระบบ 
+</t>
+  </si>
+  <si>
+    <t>GC1007_800</t>
+  </si>
+  <si>
+    <t>GC1007_801</t>
+  </si>
+  <si>
+    <t>GC1007_802</t>
+  </si>
+  <si>
+    <t>GC1007_803</t>
+  </si>
+  <si>
+    <t>GC1007_804</t>
+  </si>
+  <si>
+    <t>GC1007_805</t>
+  </si>
+  <si>
+    <t>GC1007_806</t>
+  </si>
+  <si>
+    <t>GC1007_807</t>
+  </si>
+  <si>
+    <t>GC1007_808</t>
+  </si>
+  <si>
+    <t>GC1007_809</t>
+  </si>
+  <si>
+    <t>GC1007_810</t>
+  </si>
+  <si>
+    <t>GC1007_811</t>
+  </si>
+  <si>
+    <t>GC1007_812</t>
+  </si>
+  <si>
+    <t>GC1007_813</t>
+  </si>
+  <si>
+    <t>GC1007_814</t>
+  </si>
+  <si>
+    <t>GC1007_815</t>
+  </si>
+  <si>
+    <t>GC1007_816</t>
+  </si>
+  <si>
+    <t>GC1007_817</t>
+  </si>
+  <si>
+    <t>GC1007_818</t>
+  </si>
+  <si>
+    <t>GC1007_819</t>
+  </si>
+  <si>
+    <t>GC1007_820</t>
+  </si>
+  <si>
+    <t>GC1007_821</t>
+  </si>
+  <si>
+    <t>GC1007_822</t>
+  </si>
+  <si>
+    <t>HL1006_800</t>
+  </si>
+  <si>
+    <t>HL1005_600</t>
+  </si>
+  <si>
+    <t>HR1005_600</t>
+  </si>
+  <si>
+    <t>GC1006_800</t>
+  </si>
+  <si>
+    <t>GC1006_801</t>
+  </si>
+  <si>
+    <t>GC1006_802</t>
+  </si>
+  <si>
+    <t>GC1006_803</t>
+  </si>
+  <si>
+    <t>GC1006_804</t>
+  </si>
+  <si>
+    <t>GC1006_805</t>
+  </si>
+  <si>
+    <t>GC1006_806</t>
+  </si>
+  <si>
+    <t>GC1006_807</t>
+  </si>
+  <si>
+    <t>GC1006_808</t>
+  </si>
+  <si>
+    <t>GC1006_809</t>
+  </si>
+  <si>
+    <t>GC1006_810</t>
+  </si>
+  <si>
+    <t>GC1006_811</t>
+  </si>
+  <si>
+    <t>GC1006_812</t>
+  </si>
+  <si>
+    <t>GC1006_813</t>
+  </si>
+  <si>
+    <t>GC1006_814</t>
+  </si>
+  <si>
+    <t>GC1006_815</t>
+  </si>
+  <si>
+    <t>GC1005_600</t>
+  </si>
+  <si>
+    <t>GC1005_601</t>
+  </si>
+  <si>
+    <t>GC1005_602</t>
+  </si>
+  <si>
+    <t>GC1005_603</t>
+  </si>
+  <si>
+    <t>GC1005_604</t>
+  </si>
+  <si>
+    <t>GC1005_605</t>
+  </si>
+  <si>
+    <t>GC1005_606</t>
+  </si>
+  <si>
+    <t>GC1005_607</t>
+  </si>
+  <si>
+    <t>GC1005_608</t>
+  </si>
+  <si>
+    <t>GC1005_609</t>
+  </si>
+  <si>
+    <t>GC1005_610</t>
+  </si>
+  <si>
+    <t>GC1005_611</t>
+  </si>
+  <si>
+    <t>GC1005_612</t>
+  </si>
+  <si>
+    <t>GC1005_613</t>
+  </si>
+  <si>
+    <t>GC1005_614</t>
+  </si>
+  <si>
+    <t>GC1005_615</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,6 +1554,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1456,7 +1639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,6 +1672,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2057,10 +2242,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55:B62"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3505,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>150</v>
@@ -3551,8 +3736,8 @@
       <c r="D32" t="s">
         <v>119</v>
       </c>
-      <c r="E32" t="s">
-        <v>154</v>
+      <c r="E32" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>155</v>
@@ -3598,8 +3783,8 @@
       <c r="D33" t="s">
         <v>119</v>
       </c>
-      <c r="E33" t="s">
-        <v>159</v>
+      <c r="E33" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>160</v>
@@ -3645,8 +3830,8 @@
       <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="E34" t="s">
-        <v>164</v>
+      <c r="E34" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>165</v>
@@ -3692,8 +3877,8 @@
       <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="E35" t="s">
-        <v>169</v>
+      <c r="E35" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>170</v>
@@ -3739,8 +3924,8 @@
       <c r="D36" t="s">
         <v>119</v>
       </c>
-      <c r="E36" t="s">
-        <v>174</v>
+      <c r="E36" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>175</v>
@@ -3786,8 +3971,8 @@
       <c r="D37" t="s">
         <v>119</v>
       </c>
-      <c r="E37" t="s">
-        <v>179</v>
+      <c r="E37" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>180</v>
@@ -3833,8 +4018,8 @@
       <c r="D38" t="s">
         <v>119</v>
       </c>
-      <c r="E38" t="s">
-        <v>184</v>
+      <c r="E38" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>185</v>
@@ -3880,8 +4065,8 @@
       <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" t="s">
-        <v>189</v>
+      <c r="E39" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>190</v>
@@ -3927,8 +4112,8 @@
       <c r="D40" t="s">
         <v>68</v>
       </c>
-      <c r="E40" t="s">
-        <v>194</v>
+      <c r="E40" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>195</v>
@@ -3974,8 +4159,8 @@
       <c r="D41" t="s">
         <v>119</v>
       </c>
-      <c r="E41" t="s">
-        <v>196</v>
+      <c r="E41" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>197</v>
@@ -4021,8 +4206,8 @@
       <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="E42" t="s">
-        <v>201</v>
+      <c r="E42" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>202</v>
@@ -4068,8 +4253,8 @@
       <c r="D43" t="s">
         <v>119</v>
       </c>
-      <c r="E43" t="s">
-        <v>205</v>
+      <c r="E43" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>206</v>
@@ -4115,8 +4300,8 @@
       <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="E44" t="s">
-        <v>210</v>
+      <c r="E44" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>211</v>
@@ -4162,8 +4347,8 @@
       <c r="D45" t="s">
         <v>119</v>
       </c>
-      <c r="E45" t="s">
-        <v>215</v>
+      <c r="E45" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>216</v>
@@ -4209,8 +4394,8 @@
       <c r="D46" t="s">
         <v>119</v>
       </c>
-      <c r="E46" t="s">
-        <v>219</v>
+      <c r="E46" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>220</v>
@@ -4257,7 +4442,7 @@
         <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>398</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>225</v>
@@ -4303,8 +4488,8 @@
       <c r="D48" t="s">
         <v>68</v>
       </c>
-      <c r="E48" t="s">
-        <v>229</v>
+      <c r="E48" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>230</v>
@@ -4350,8 +4535,8 @@
       <c r="D49" t="s">
         <v>68</v>
       </c>
-      <c r="E49" t="s">
-        <v>231</v>
+      <c r="E49" s="12" t="s">
+        <v>400</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>232</v>
@@ -4397,8 +4582,8 @@
       <c r="D50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" t="s">
-        <v>233</v>
+      <c r="E50" s="12" t="s">
+        <v>401</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>234</v>
@@ -4444,8 +4629,8 @@
       <c r="D51" t="s">
         <v>96</v>
       </c>
-      <c r="E51" t="s">
-        <v>236</v>
+      <c r="E51" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>237</v>
@@ -4491,8 +4676,8 @@
       <c r="D52" t="s">
         <v>238</v>
       </c>
-      <c r="E52" t="s">
-        <v>239</v>
+      <c r="E52" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>240</v>
@@ -4538,8 +4723,8 @@
       <c r="D53" t="s">
         <v>241</v>
       </c>
-      <c r="E53" t="s">
-        <v>239</v>
+      <c r="E53" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>242</v>
@@ -4585,8 +4770,8 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-      <c r="E54" t="s">
-        <v>244</v>
+      <c r="E54" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>245</v>
@@ -4632,8 +4817,8 @@
       <c r="D55" t="s">
         <v>119</v>
       </c>
-      <c r="E55" t="s">
-        <v>246</v>
+      <c r="E55" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>247</v>
@@ -4679,8 +4864,8 @@
       <c r="D56" t="s">
         <v>119</v>
       </c>
-      <c r="E56" t="s">
-        <v>248</v>
+      <c r="E56" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>249</v>
@@ -4726,8 +4911,8 @@
       <c r="D57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" t="s">
-        <v>250</v>
+      <c r="E57" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>251</v>
@@ -4767,8 +4952,8 @@
       <c r="B58">
         <v>200</v>
       </c>
-      <c r="E58" t="s">
-        <v>252</v>
+      <c r="E58" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>253</v>
@@ -4814,8 +4999,8 @@
       <c r="D59" t="s">
         <v>119</v>
       </c>
-      <c r="E59" t="s">
-        <v>254</v>
+      <c r="E59" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>255</v>
@@ -4861,8 +5046,8 @@
       <c r="D60" t="s">
         <v>119</v>
       </c>
-      <c r="E60" t="s">
-        <v>256</v>
+      <c r="E60" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>257</v>
@@ -4908,8 +5093,8 @@
       <c r="D61" t="s">
         <v>119</v>
       </c>
-      <c r="E61" t="s">
-        <v>258</v>
+      <c r="E61" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>259</v>
@@ -4955,8 +5140,8 @@
       <c r="D62" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="s">
-        <v>258</v>
+      <c r="E62" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>261</v>
@@ -4993,6 +5178,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="N6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -5038,24 +5224,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="12.6328125" style="12" customWidth="1"/>
     <col min="3" max="3" width="23.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="50.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="121" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
     <col min="8" max="8" width="14.90625" style="12" customWidth="1"/>
     <col min="9" max="10" width="12.6328125" style="12" customWidth="1"/>
     <col min="11" max="11" width="9" style="12" customWidth="1"/>
-    <col min="12" max="13" width="12.6328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="12" customWidth="1"/>
     <col min="14" max="14" width="11.81640625" style="12" customWidth="1"/>
     <col min="15" max="15" width="11.7265625" style="12" customWidth="1"/>
     <col min="16" max="19" width="12.6328125" style="12" customWidth="1"/>
@@ -5078,7 +5266,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -5149,627 +5337,1107 @@
       <c r="B2">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>282</v>
+      <c r="F2" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>283</v>
+      <c r="F3" s="14" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="B4">
         <v>404</v>
       </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
+      <c r="E4" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="B5">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
+      <c r="E5" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="B6">
         <v>400</v>
       </c>
-      <c r="E6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" t="s">
-        <v>285</v>
+      <c r="E6" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="B7">
         <v>400</v>
       </c>
-      <c r="E7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" t="s">
-        <v>287</v>
+      <c r="E7" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="B8">
         <v>400</v>
       </c>
-      <c r="E8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="s">
-        <v>289</v>
+      <c r="E8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="B9">
         <v>400</v>
       </c>
-      <c r="E9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:26">
       <c r="B10">
         <v>400</v>
       </c>
-      <c r="E10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:26">
       <c r="B11">
         <v>400</v>
       </c>
-      <c r="E11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:26">
       <c r="B12">
         <v>400</v>
       </c>
-      <c r="E12" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:26">
       <c r="B13">
         <v>400</v>
       </c>
-      <c r="E13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
+      <c r="E13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="B14">
         <v>400</v>
       </c>
-      <c r="E14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
+      <c r="E14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="B15">
         <v>400</v>
       </c>
-      <c r="E15" t="s">
-        <v>302</v>
-      </c>
-      <c r="F15" t="s">
-        <v>303</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
+      <c r="E15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="B16">
         <v>400</v>
       </c>
-      <c r="E16" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" t="s">
-        <v>305</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="E16" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="N16"/>
     </row>
     <row r="17" spans="2:26">
       <c r="B17">
         <v>400</v>
       </c>
-      <c r="E17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" t="s">
-        <v>307</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="E17" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="O17"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18">
         <v>400</v>
       </c>
-      <c r="E18" t="s">
-        <v>308</v>
-      </c>
-      <c r="F18" t="s">
-        <v>309</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="E18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="P18"/>
     </row>
     <row r="19" spans="2:26">
       <c r="B19">
         <v>400</v>
       </c>
-      <c r="E19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="E19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="Q19"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20">
         <v>400</v>
       </c>
-      <c r="E20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" t="s">
-        <v>313</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="E20" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="R20"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21">
         <v>400</v>
       </c>
-      <c r="E21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F21" t="s">
-        <v>315</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="E21" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="S21"/>
     </row>
     <row r="22" spans="2:26">
       <c r="B22">
         <v>400</v>
       </c>
-      <c r="E22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" t="s">
-        <v>317</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="E22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="T22"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23">
         <v>400</v>
       </c>
-      <c r="E23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" t="s">
-        <v>319</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="E23" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="U23"/>
     </row>
     <row r="24" spans="2:26">
       <c r="B24">
         <v>400</v>
       </c>
-      <c r="E24" t="s">
-        <v>320</v>
-      </c>
-      <c r="F24" t="s">
-        <v>321</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="E24" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="V24"/>
     </row>
     <row r="25" spans="2:26">
       <c r="B25">
         <v>400</v>
       </c>
-      <c r="E25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F25" t="s">
-        <v>323</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="E25" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="W25"/>
     </row>
     <row r="26" spans="2:26">
       <c r="B26">
         <v>400</v>
       </c>
-      <c r="E26" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" t="s">
-        <v>325</v>
-      </c>
-      <c r="X26" t="s">
+      <c r="E26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q26" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="X26"/>
     </row>
     <row r="27" spans="2:26">
       <c r="B27">
         <v>400</v>
       </c>
-      <c r="E27" t="s">
-        <v>326</v>
-      </c>
-      <c r="F27" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="E27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R27" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="Y27"/>
     </row>
     <row r="28" spans="2:26">
       <c r="B28">
         <v>400</v>
       </c>
-      <c r="E28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F28" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="E28" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S28" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="Z28"/>
     </row>
     <row r="29" spans="2:26">
       <c r="B29">
         <v>400</v>
       </c>
-      <c r="E29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F29" t="s">
-        <v>331</v>
+      <c r="E29" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:26">
       <c r="B30">
         <v>400</v>
       </c>
-      <c r="E30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F30" t="s">
-        <v>333</v>
+      <c r="E30" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:26">
       <c r="B31">
         <v>400</v>
       </c>
-      <c r="E31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F31" t="s">
-        <v>335</v>
+      <c r="E31" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:26">
       <c r="B32">
         <v>400</v>
       </c>
-      <c r="E32" t="s">
-        <v>336</v>
-      </c>
-      <c r="F32" t="s">
-        <v>337</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="E32" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32"/>
+      <c r="W32" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33">
         <v>400</v>
       </c>
-      <c r="E33" t="s">
-        <v>338</v>
-      </c>
-      <c r="F33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="E33" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33"/>
+      <c r="X33" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34">
         <v>400</v>
       </c>
-      <c r="E34" t="s">
-        <v>340</v>
-      </c>
-      <c r="F34" t="s">
-        <v>341</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="E34" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I34"/>
+      <c r="Y34" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35">
         <v>400</v>
       </c>
-      <c r="E35" t="s">
-        <v>342</v>
-      </c>
-      <c r="F35" t="s">
-        <v>343</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="E35" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35"/>
+      <c r="Z35" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36">
         <v>400</v>
       </c>
-      <c r="E36" t="s">
-        <v>344</v>
-      </c>
-      <c r="F36" t="s">
-        <v>345</v>
-      </c>
-      <c r="K36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="E36" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37">
         <v>400</v>
       </c>
-      <c r="E37" t="s">
-        <v>346</v>
-      </c>
-      <c r="F37" t="s">
-        <v>347</v>
-      </c>
-      <c r="L37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="E37" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
       <c r="B38">
         <v>400</v>
       </c>
-      <c r="E38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" t="s">
-        <v>349</v>
-      </c>
-      <c r="M38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="E38" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39">
         <v>400</v>
       </c>
-      <c r="E39" t="s">
-        <v>350</v>
-      </c>
-      <c r="F39" t="s">
-        <v>351</v>
-      </c>
-      <c r="N39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="E39" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
       <c r="B40">
         <v>400</v>
       </c>
-      <c r="E40" t="s">
-        <v>352</v>
-      </c>
-      <c r="F40" t="s">
-        <v>353</v>
-      </c>
-      <c r="O40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="E40" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41">
         <v>400</v>
       </c>
-      <c r="E41" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41" t="s">
-        <v>355</v>
-      </c>
-      <c r="P41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="E41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42">
         <v>400</v>
       </c>
-      <c r="E42" t="s">
-        <v>356</v>
-      </c>
-      <c r="F42" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="E42" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43">
         <v>400</v>
       </c>
-      <c r="E43" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" t="s">
-        <v>359</v>
-      </c>
-      <c r="R43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="E43" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26">
       <c r="B44">
         <v>400</v>
       </c>
-      <c r="E44" t="s">
-        <v>360</v>
-      </c>
-      <c r="F44" t="s">
-        <v>361</v>
-      </c>
-      <c r="S44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23">
+      <c r="E44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26">
       <c r="B45">
         <v>400</v>
       </c>
-      <c r="E45" t="s">
-        <v>362</v>
-      </c>
-      <c r="F45" t="s">
-        <v>363</v>
-      </c>
-      <c r="T45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23">
+      <c r="E45" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
       <c r="B46">
         <v>400</v>
       </c>
-      <c r="E46" t="s">
-        <v>364</v>
-      </c>
-      <c r="F46" t="s">
-        <v>365</v>
-      </c>
-      <c r="U46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23">
+      <c r="E46" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26">
       <c r="B47">
         <v>400</v>
       </c>
-      <c r="E47" t="s">
-        <v>366</v>
-      </c>
-      <c r="F47" t="s">
-        <v>367</v>
-      </c>
-      <c r="V47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23">
+      <c r="E47" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26">
       <c r="B48">
         <v>400</v>
       </c>
-      <c r="E48" t="s">
-        <v>368</v>
-      </c>
-      <c r="F48" t="s">
-        <v>369</v>
-      </c>
-      <c r="W48" t="s">
+      <c r="E48" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="P48" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5777,13 +6445,13 @@
       <c r="B49">
         <v>400</v>
       </c>
-      <c r="E49" t="s">
-        <v>370</v>
-      </c>
-      <c r="F49" t="s">
-        <v>371</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="E49" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q49" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5791,13 +6459,13 @@
       <c r="B50">
         <v>400</v>
       </c>
-      <c r="E50" t="s">
-        <v>372</v>
-      </c>
-      <c r="F50" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y50" t="s">
+      <c r="E50" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="R50" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5805,17 +6473,549 @@
       <c r="B51">
         <v>400</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52" s="12">
+        <v>400</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26">
+      <c r="B53" s="12">
+        <v>400</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54" s="12">
+        <v>400</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26">
+      <c r="B55" s="12">
+        <v>400</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56" s="12">
+        <v>400</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="X56" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26">
+      <c r="B57" s="12">
+        <v>400</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26">
+      <c r="B58" s="12">
+        <v>400</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z58" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26">
+      <c r="B59" s="12">
+        <v>400</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z59" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26">
+      <c r="B60" s="12">
+        <v>400</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z60" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26">
+      <c r="B61" s="12">
+        <v>400</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F61" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z61" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26">
+      <c r="B62" s="12">
+        <v>400</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="Z51" t="s">
-        <v>33</v>
+      <c r="F62" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26">
+      <c r="B63" s="12">
+        <v>400</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26">
+      <c r="B64" s="12">
+        <v>400</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="12">
+        <v>400</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="12">
+        <v>400</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="12">
+        <v>400</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="12">
+        <v>400</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="12">
+        <v>400</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="12">
+        <v>400</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="12">
+        <v>400</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="12">
+        <v>400</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="12">
+        <v>400</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="12">
+        <v>400</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="12">
+        <v>400</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="12">
+        <v>400</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="12">
+        <v>400</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="12">
+        <v>400</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="12">
+        <v>400</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="12">
+        <v>400</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="12">
+        <v>400</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5825,8 +7025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5865,13 +7065,13 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5879,10 +7079,10 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5893,10 +7093,10 @@
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -5913,7 +7113,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>84</v>
@@ -5930,10 +7130,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="58" customHeight="1">
@@ -5947,10 +7147,10 @@
         <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>387</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5963,7 +7163,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6000,13 +7200,13 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6017,10 +7217,10 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
         <v>79</v>
@@ -6037,10 +7237,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" customHeight="1">
@@ -6054,10 +7254,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" customHeight="1">
@@ -6071,10 +7271,10 @@
         <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>387</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -930,9 +930,9 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","ConsentDateTimeDisplay":"21/07/2022 13:39","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","ConsentDateTimeDisplay":"25/07/2022 13:54","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","ConsentDateTimeDisplay":"25/07/2022 13:57","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":59,"CollectionPointId":43,"TotalTransactions":2,"FullName":"Chompoo Test","CollectionPointGuid":"D3C1F721-A722-4F89-D672-951BC8B62274","ConsentDateTime":"2022-07-25T08:55:29+00:00","ConsentDateTimeDisplay":"25/07/2022 15:55","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"chanikarnk@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","WebsiteId":1,"CollectionPointVersion":2,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":30,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran Le","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:43:01+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987652222","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","ConsentDateTimeDisplay":"20/07/2022 15:41","WebsiteId":1,"CollectionPointVersion":2,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","ConsentDateTimeDisplay":"21/07/2022 13:39","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":30,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran Le","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:43:01+00:00","ConsentDateTimeDisplay":"21/07/2022 13:43","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987652222","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","ConsentDateTimeDisplay":"25/07/2022 13:54","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","ConsentDateTimeDisplay":"25/07/2022 13:57","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Object reference not set to an instance of an object.","ExceptionType":"System.NullReferenceException","StackTrace":"   at SEMS.API.Extensions.GeneralConsentMappingExtension.ToGeneralConsentSearch(GeneralConsentListRequest generalConsentListRequest)\r\n   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Object reference not set to an instance of an object.","ExceptionType":"System.NullReferenceException","StackTrace":"   at SEMS.API.Extensions.GeneralConsentMappingExtension.ToGeneralConsentSearch(GeneralConsentListRequest generalConsentListRequest) in D:\\PDPA\\PDPA\\SEMS.API\\Extensions\\GeneralConsentMappingExtension.cs:line 204\r\n   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 53\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@take', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@take', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_name', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_name', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_name', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_name', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_desc', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_desc', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[{"ConsentId":27,"CollectionPointId":7,"TotalTransactions":3,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-18T09:34:35+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Token invalid","ExceptionType":"System.Exception","StackTrace":"   at SEMS.API.AuthorizationFilterAttribute.OnActionExecuting(HttpActionContext actionContext)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.OnActionExecutingAsync(HttpActionContext actionContext, CancellationToken cancellationToken)\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Token invalid","ExceptionType":"System.Exception","StackTrace":"   at SEMS.API.AuthorizationFilterAttribute.OnActionExecuting(HttpActionContext actionContext) in D:\\PDPA\\PDPA\\SEMS.API\\App_Start\\FilterAttribute.cs:line 39\r\n   at System.Web.Http.Filters.ActionFilterAttribute.OnActionExecutingAsync(HttpActionContext actionContext, CancellationToken cancellationToken)\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@skip', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@take', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@take', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Invalid column name 'cDtNiiyCnc'.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Invalid column name 'CNPhNPUXXB'.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"The identifier that starts with 'rymbmmmplqgyzxpzezustibmvdfobbclckfhlpszyyjpwlkmuebncvfvbfdpcdhzhciwanhjcevmmeyvketvygqelduvutdfmsnlbxtxezqqbxtfmjdczriabixijhkw' is too long. Maximum length is 128.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"The identifier that starts with 'rrmkivjvhxprotfrovdtqzonmgstcyeivedtuqpjfrnonapbwkquwyyerowpztoqaqpznwzqlovkorosjwbhmcamzlurdwjpglgkztpciqxndzqrpcbcmmumatgsxsfz' is too long. Maximum length is 128.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_desc', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_LIST_PAGINATION' expects parameter '@sort_desc', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5445,9 +5445,9 @@
   </sheetPr>
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W91" sqref="W91"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -5474,8 +5474,8 @@
     <col width="12.1796875" customWidth="1" style="13" min="24" max="24"/>
     <col width="21.36328125" customWidth="1" style="13" min="25" max="25"/>
     <col width="15.6328125" customWidth="1" style="13" min="26" max="27"/>
-    <col width="8.7265625" customWidth="1" style="13" min="28" max="62"/>
-    <col width="8.7265625" customWidth="1" style="13" min="63" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="13" min="28" max="75"/>
+    <col width="8.7265625" customWidth="1" style="13" min="76" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="15">
@@ -5701,6 +5701,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEFA</t>
@@ -5809,6 +5812,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -5917,6 +5923,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6025,6 +6034,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6133,6 +6145,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6241,6 +6256,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6349,6 +6367,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6457,6 +6478,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEFA</t>
@@ -6565,6 +6589,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6673,6 +6700,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6781,6 +6811,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6889,6 +6922,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -6997,6 +7033,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -7104,6 +7143,9 @@
         <is>
           <t>empty</t>
         </is>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -7280,6 +7322,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>empty</t>
@@ -7404,6 +7449,9 @@
         <is>
           <t>empty</t>
         </is>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -7526,6 +7574,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -7636,6 +7687,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -7746,6 +7800,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -7856,6 +7913,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -7966,6 +8026,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
@@ -8088,6 +8151,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>empty</t>
@@ -8214,6 +8280,9 @@
           <t>empty</t>
         </is>
       </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>empty</t>
@@ -8339,6 +8408,9 @@
         <is>
           <t>empty</t>
         </is>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -8456,10 +8528,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V26" t="n">
+        <v>1</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -8571,10 +8641,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V27" t="n">
+        <v>1</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -8684,10 +8752,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V28" t="n">
+        <v>1</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -8799,10 +8865,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V29" t="n">
+        <v>1</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -8912,10 +8976,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V30" t="n">
+        <v>1</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -9025,10 +9087,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V31" t="n">
+        <v>1</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -9138,10 +9198,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V32" t="n">
+        <v>1</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -9251,10 +9309,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V33" t="n">
+        <v>1</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -9364,10 +9420,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V34" t="n">
+        <v>1</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -9477,10 +9531,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V35" t="n">
+        <v>1</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -9590,10 +9642,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V36" t="n">
+        <v>1</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -9703,10 +9753,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V37" t="n">
+        <v>1</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -9816,10 +9864,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V38" t="n">
+        <v>1</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -9929,10 +9975,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V39" t="n">
+        <v>1</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -10042,10 +10086,8 @@
           <t>missing</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V40" t="n">
+        <v>1</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -10155,10 +10197,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V41" t="n">
+        <v>1</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -10268,10 +10308,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V42" t="n">
+        <v>1</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -10381,10 +10419,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V43" t="n">
+        <v>1</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -10496,10 +10532,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V44" t="n">
+        <v>1</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -10511,7 +10545,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>2022-07-27T23:59:59+07:01</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -10609,10 +10643,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V45" t="n">
+        <v>1</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -10624,7 +10656,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:02</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -10722,10 +10754,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V46" t="n">
+        <v>1</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -10737,7 +10767,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:03</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -10783,7 +10813,7 @@
       </c>
       <c r="H47" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I47" s="14" t="n">
@@ -10847,14 +10877,12 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V47" t="n">
+        <v>1</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -10862,7 +10890,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:04</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -10881,12 +10909,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>500</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -10906,7 +10929,7 @@
       </c>
       <c r="H48" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I48" s="14" t="n">
@@ -10970,14 +10993,12 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V48" t="n">
+        <v>1</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -10985,7 +11006,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:05</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -11004,12 +11025,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>500</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11029,7 +11045,7 @@
       </c>
       <c r="H49" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I49" s="14" t="n">
@@ -11093,14 +11109,12 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V49" t="n">
+        <v>1</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -11108,7 +11122,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:06</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -11127,12 +11141,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>500</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11159,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="14" t="inlineStr">
         <is>
@@ -11216,24 +11225,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V50" t="n">
+        <v>1</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X50" t="n">
+        <v>1</v>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:07</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -11270,8 +11275,10 @@
 - CollectionPointGuid  </t>
         </is>
       </c>
-      <c r="G51" s="14" t="n">
-        <v>20</v>
+      <c r="G51" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H51" s="14" t="inlineStr">
         <is>
@@ -11282,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="14" t="inlineStr">
         <is>
@@ -11339,24 +11346,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V51" t="n">
+        <v>1</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X51" t="n">
+        <v>1</v>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:08</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -11375,12 +11378,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>500</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -11393,8 +11391,10 @@
 - CompanyId  </t>
         </is>
       </c>
-      <c r="G52" s="14" t="n">
-        <v>20</v>
+      <c r="G52" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H52" s="14" t="inlineStr">
         <is>
@@ -11407,12 +11407,10 @@
         </is>
       </c>
       <c r="J52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K52" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L52" s="14" t="inlineStr">
         <is>
@@ -11464,24 +11462,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V52" t="n">
+        <v>1</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X52" t="n">
+        <v>1</v>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:09</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -11500,12 +11494,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>500</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -11518,8 +11507,10 @@
 - WebSiteId  </t>
         </is>
       </c>
-      <c r="G53" s="14" t="n">
-        <v>20</v>
+      <c r="G53" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H53" s="14" t="inlineStr">
         <is>
@@ -11534,10 +11525,8 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="K53" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="K53" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L53" s="14" t="inlineStr">
         <is>
@@ -11589,24 +11578,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V53" t="n">
+        <v>1</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X53" t="n">
+        <v>1</v>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:10</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -11625,12 +11610,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>500</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -11643,8 +11623,10 @@
 - Uid  </t>
         </is>
       </c>
-      <c r="G54" s="14" t="n">
-        <v>20</v>
+      <c r="G54" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H54" s="14" t="inlineStr">
         <is>
@@ -11655,12 +11637,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L54" s="14" t="inlineStr">
         <is>
@@ -11712,24 +11692,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V54" t="n">
+        <v>1</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X54" t="n">
+        <v>1</v>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:11</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -11748,12 +11724,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>500</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -11766,8 +11737,10 @@
 - FullName  </t>
         </is>
       </c>
-      <c r="G55" s="14" t="n">
-        <v>20</v>
+      <c r="G55" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H55" s="14" t="inlineStr">
         <is>
@@ -11778,12 +11751,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K55" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L55" s="14" t="inlineStr">
         <is>
@@ -11835,24 +11806,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V55" t="n">
+        <v>1</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X55" t="n">
+        <v>1</v>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:12</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -11871,12 +11838,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>500</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -11889,8 +11851,10 @@
 - Email  </t>
         </is>
       </c>
-      <c r="G56" s="14" t="n">
-        <v>20</v>
+      <c r="G56" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H56" s="14" t="inlineStr">
         <is>
@@ -11901,12 +11865,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K56" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L56" s="14" t="inlineStr">
         <is>
@@ -11958,24 +11920,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V56" t="n">
+        <v>1</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X56" t="n">
+        <v>1</v>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:13</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -11994,12 +11952,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>500</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -12012,8 +11965,10 @@
 - PhoneNumber  </t>
         </is>
       </c>
-      <c r="G57" s="14" t="n">
-        <v>20</v>
+      <c r="G57" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H57" s="14" t="inlineStr">
         <is>
@@ -12024,12 +11979,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K57" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L57" s="14" t="inlineStr">
         <is>
@@ -12081,24 +12034,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V57" t="n">
+        <v>1</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X57" t="n">
+        <v>1</v>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:14</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -12117,12 +12066,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>500</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -12135,8 +12079,10 @@
 - FromBrowser  </t>
         </is>
       </c>
-      <c r="G58" s="14" t="n">
-        <v>20</v>
+      <c r="G58" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H58" s="14" t="inlineStr">
         <is>
@@ -12147,12 +12093,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K58" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L58" s="14" t="inlineStr">
         <is>
@@ -12204,24 +12148,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V58" t="n">
+        <v>1</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X58" t="n">
+        <v>1</v>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:15</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -12240,12 +12180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>500</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -12258,8 +12193,10 @@
 - FromWebsite  </t>
         </is>
       </c>
-      <c r="G59" s="14" t="n">
-        <v>20</v>
+      <c r="G59" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
@@ -12270,12 +12207,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K59" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L59" s="14" t="inlineStr">
         <is>
@@ -12327,24 +12262,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V59" t="n">
+        <v>1</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X59" t="n">
+        <v>1</v>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:16</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -12363,12 +12294,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>500</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -12381,8 +12307,10 @@
 - VerifyType  </t>
         </is>
       </c>
-      <c r="G60" s="14" t="n">
-        <v>20</v>
+      <c r="G60" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H60" s="14" t="inlineStr">
         <is>
@@ -12393,12 +12321,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K60" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L60" s="14" t="inlineStr">
         <is>
@@ -12450,24 +12376,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V60" t="n">
+        <v>1</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X60" t="n">
+        <v>1</v>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:17</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -12486,12 +12408,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>500</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -12504,8 +12421,10 @@
 - EventCode  </t>
         </is>
       </c>
-      <c r="G61" s="14" t="n">
-        <v>20</v>
+      <c r="G61" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H61" s="14" t="inlineStr">
         <is>
@@ -12516,12 +12435,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K61" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L61" s="14" t="inlineStr">
         <is>
@@ -12573,24 +12490,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V61" t="n">
+        <v>1</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X61" t="n">
+        <v>1</v>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:18</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -12609,12 +12522,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>500</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -12627,8 +12535,10 @@
 - IdCardNumber  </t>
         </is>
       </c>
-      <c r="G62" s="14" t="n">
-        <v>20</v>
+      <c r="G62" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H62" s="14" t="inlineStr">
         <is>
@@ -12639,12 +12549,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K62" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L62" s="14" t="inlineStr">
         <is>
@@ -12696,24 +12604,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V62" t="n">
+        <v>1</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X62" t="n">
+        <v>1</v>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:19</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -12732,12 +12636,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>500</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -12750,8 +12649,10 @@
 - Expired  </t>
         </is>
       </c>
-      <c r="G63" s="14" t="n">
-        <v>20</v>
+      <c r="G63" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
@@ -12762,12 +12663,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K63" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L63" s="14" t="inlineStr">
         <is>
@@ -12819,24 +12718,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V63" t="n">
+        <v>1</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X63" t="n">
+        <v>1</v>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:20</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -12855,12 +12750,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>500</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -12873,8 +12763,10 @@
 - ConsentSignature  </t>
         </is>
       </c>
-      <c r="G64" s="14" t="n">
-        <v>20</v>
+      <c r="G64" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H64" s="14" t="inlineStr">
         <is>
@@ -12885,12 +12777,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K64" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L64" s="14" t="inlineStr">
         <is>
@@ -12942,24 +12832,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V64" t="n">
+        <v>1</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X64" t="n">
+        <v>1</v>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:21</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -12978,12 +12864,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>500</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -12996,8 +12877,10 @@
 - Purpose  </t>
         </is>
       </c>
-      <c r="G65" s="14" t="n">
-        <v>20</v>
+      <c r="G65" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H65" s="14" t="inlineStr">
         <is>
@@ -13008,12 +12891,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K65" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L65" s="14" t="inlineStr">
         <is>
@@ -13065,24 +12946,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V65" t="n">
+        <v>1</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X65" t="n">
+        <v>1</v>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:22</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -13101,12 +12978,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>500</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -13119,8 +12991,10 @@
 - Purpose PurposeGuid  </t>
         </is>
       </c>
-      <c r="G66" s="14" t="n">
-        <v>20</v>
+      <c r="G66" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H66" s="14" t="inlineStr">
         <is>
@@ -13131,12 +13005,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K66" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L66" s="14" t="inlineStr">
         <is>
@@ -13188,24 +13060,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V66" t="n">
+        <v>1</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X66" t="n">
+        <v>1</v>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:23</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -13242,8 +13110,10 @@
 - Purpose Active  </t>
         </is>
       </c>
-      <c r="G67" s="14" t="n">
-        <v>20</v>
+      <c r="G67" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H67" s="14" t="inlineStr">
         <is>
@@ -13254,12 +13124,10 @@
         <v>0</v>
       </c>
       <c r="J67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K67" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L67" s="14" t="inlineStr">
         <is>
@@ -13311,24 +13179,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V67" t="n">
+        <v>1</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X67" t="n">
+        <v>1</v>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:24</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -13347,12 +13211,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>500</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -13365,8 +13224,10 @@
 -  Purpose Expired  </t>
         </is>
       </c>
-      <c r="G68" s="14" t="n">
-        <v>20</v>
+      <c r="G68" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H68" s="14" t="inlineStr">
         <is>
@@ -13377,12 +13238,10 @@
         <v>0</v>
       </c>
       <c r="J68" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K68" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L68" s="14" t="inlineStr">
         <is>
@@ -13434,24 +13293,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V68" t="n">
+        <v>1</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X68" t="n">
+        <v>1</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:25</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -13470,12 +13325,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>500</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -13488,8 +13338,10 @@
 - CollectionPointCustomField CollectionPointCustomFieldConfigID  </t>
         </is>
       </c>
-      <c r="G69" s="14" t="n">
-        <v>20</v>
+      <c r="G69" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H69" s="14" t="inlineStr">
         <is>
@@ -13500,12 +13352,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K69" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L69" s="14" t="inlineStr">
         <is>
@@ -13557,24 +13407,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V69" t="n">
+        <v>1</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X69" t="n">
+        <v>1</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:26</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -13593,12 +13439,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>500</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
-        </is>
+        <v>204</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -13611,8 +13452,10 @@
 - CollectionPointCustomField Value  </t>
         </is>
       </c>
-      <c r="G70" s="14" t="n">
-        <v>20</v>
+      <c r="G70" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
       <c r="H70" s="14" t="inlineStr">
         <is>
@@ -13623,12 +13466,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K70" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="L70" s="14" t="inlineStr">
         <is>
@@ -13680,24 +13521,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V70" t="n">
+        <v>1</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="X70" t="n">
+        <v>1</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:27</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -13712,8 +13549,18 @@
       </c>
     </row>
     <row r="71" ht="29" customHeight="1" s="13">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B71" t="n">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -13728,12 +13575,12 @@
       </c>
       <c r="G71" s="14" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="H71" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I71" s="14" t="inlineStr">
@@ -13801,24 +13648,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V71" t="n">
+        <v>1</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
+        </is>
+      </c>
+      <c r="X71" t="n">
+        <v>1</v>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:28</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -13833,8 +13676,13 @@
       </c>
     </row>
     <row r="72" ht="29" customHeight="1" s="13">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B72" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -13854,7 +13702,7 @@
       </c>
       <c r="H72" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I72" s="14" t="inlineStr">
@@ -13922,24 +13770,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V72" t="n">
+        <v>1</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
+        </is>
+      </c>
+      <c r="X72" t="n">
+        <v>1</v>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:29</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -13954,8 +13798,13 @@
       </c>
     </row>
     <row r="73" ht="29" customHeight="1" s="13">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B73" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -13975,7 +13824,7 @@
       </c>
       <c r="H73" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I73" s="14" t="inlineStr">
@@ -14043,24 +13892,20 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="V73" t="n">
+        <v>1</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
+        </is>
+      </c>
+      <c r="X73" t="n">
+        <v>1</v>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>2022-07-27T23:59:59+07:30</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -14075,8 +13920,13 @@
       </c>
     </row>
     <row r="74" ht="29" customHeight="1" s="13">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B74" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -14089,8 +13939,10 @@
 - AgeRangeCode  </t>
         </is>
       </c>
-      <c r="G74" s="14" t="n">
-        <v>20</v>
+      <c r="G74" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
       </c>
       <c r="H74" s="14" t="inlineStr">
         <is>
@@ -14101,10 +13953,10 @@
         <v>0</v>
       </c>
       <c r="J74" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L74" s="14" t="inlineStr">
         <is>
@@ -14141,25 +13993,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S74" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T74" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U74" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
+        <v>1</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -14171,21 +14021,33 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:31</t>
+        </is>
+      </c>
+      <c r="Z74" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA74" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B75" t="n">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -14203,17 +14065,17 @@
       </c>
       <c r="H75" s="14" t="inlineStr">
         <is>
-          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
+          <t>length</t>
         </is>
       </c>
       <c r="I75" s="14" t="n">
         <v>0</v>
       </c>
       <c r="J75" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L75" s="14" t="inlineStr">
         <is>
@@ -14250,25 +14112,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S75" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T75" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U75" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
+        <v>1</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -14280,21 +14140,33 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:32</t>
+        </is>
+      </c>
+      <c r="Z75" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA75" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="76" ht="29" customHeight="1" s="13">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B76" t="n">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -14315,14 +14187,16 @@
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
-      <c r="I76" s="14" t="n">
-        <v>0</v>
+      <c r="I76" s="14" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
       </c>
       <c r="J76" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L76" s="14" t="inlineStr">
         <is>
@@ -14359,25 +14233,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S76" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T76" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U76" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
+        <v>1</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -14389,21 +14261,33 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:33</t>
+        </is>
+      </c>
+      <c r="Z76" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA76" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="77" ht="29" customHeight="1" s="13">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B77" t="n">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -14427,11 +14311,13 @@
       <c r="I77" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="14" t="n">
-        <v>0</v>
+      <c r="J77" s="14" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
       </c>
       <c r="K77" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L77" s="14" t="inlineStr">
         <is>
@@ -14458,9 +14344,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R77" s="14" t="inlineStr">
@@ -14468,25 +14354,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
+        <v>1</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -14498,21 +14382,33 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:34</t>
+        </is>
+      </c>
+      <c r="Z77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA77" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="78" ht="29" customHeight="1" s="13">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B78" t="n">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -14537,10 +14433,12 @@
         <v>0</v>
       </c>
       <c r="J78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K78" s="14" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
       </c>
       <c r="L78" s="14" t="inlineStr">
         <is>
@@ -14567,9 +14465,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R78" s="14" t="inlineStr">
@@ -14577,25 +14475,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
+        <v>1</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -14607,21 +14503,28 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:35</t>
+        </is>
+      </c>
+      <c r="Z78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA78" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="79" ht="29" customHeight="1" s="13">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B79" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -14646,14 +14549,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>length</t>
         </is>
       </c>
       <c r="M79" s="14" t="inlineStr">
@@ -14676,9 +14579,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R79" s="14" t="inlineStr">
@@ -14686,25 +14589,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
+        <v>1</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -14716,21 +14617,28 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:36</t>
+        </is>
+      </c>
+      <c r="Z79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA79" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="80" ht="29" customHeight="1" s="13">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B80" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -14755,10 +14663,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L80" s="14" t="inlineStr">
         <is>
@@ -14767,7 +14675,7 @@
       </c>
       <c r="M80" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>length</t>
         </is>
       </c>
       <c r="N80" s="14" t="inlineStr">
@@ -14785,9 +14693,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R80" s="14" t="inlineStr">
@@ -14795,25 +14703,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V80" t="n">
+        <v>1</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -14825,21 +14731,28 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA80" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:37</t>
+        </is>
+      </c>
+      <c r="Z80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA80" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="81" ht="29" customHeight="1" s="13">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B81" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -14864,10 +14777,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L81" s="14" t="inlineStr">
         <is>
@@ -14881,7 +14794,7 @@
       </c>
       <c r="N81" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>length</t>
         </is>
       </c>
       <c r="O81" s="14" t="inlineStr">
@@ -14894,9 +14807,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R81" s="14" t="inlineStr">
@@ -14904,25 +14817,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -14934,21 +14845,28 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA81" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:38</t>
+        </is>
+      </c>
+      <c r="Z81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA81" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="82" ht="29" customHeight="1" s="13">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B82" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -14973,10 +14891,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L82" s="14" t="inlineStr">
         <is>
@@ -14995,7 +14913,7 @@
       </c>
       <c r="O82" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>length</t>
         </is>
       </c>
       <c r="P82" s="14" t="inlineStr">
@@ -15003,9 +14921,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R82" s="14" t="inlineStr">
@@ -15013,25 +14931,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -15043,25 +14959,32 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA82" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:39</t>
+        </is>
+      </c>
+      <c r="Z82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA82" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="83" ht="29" customHeight="1" s="13">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B83" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GC1007_811</t>
+          <t>GC1007_812</t>
         </is>
       </c>
       <c r="F83" s="11" t="inlineStr">
@@ -15082,10 +15005,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L83" s="14" t="inlineStr">
         <is>
@@ -15109,12 +15032,12 @@
       </c>
       <c r="P83" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>email</t>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="Q83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R83" s="14" t="inlineStr">
@@ -15122,25 +15045,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
+        <v>1</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -15152,25 +15073,32 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA83" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:40</t>
+        </is>
+      </c>
+      <c r="Z83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA83" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="84" ht="29" customHeight="1" s="13">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B84" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GC1007_812</t>
+          <t>GC1007_813</t>
         </is>
       </c>
       <c r="F84" s="11" t="inlineStr">
@@ -15191,10 +15119,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L84" s="14" t="inlineStr">
         <is>
@@ -15221,9 +15149,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q84" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
         </is>
       </c>
       <c r="R84" s="14" t="inlineStr">
@@ -15231,25 +15159,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S84" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T84" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U84" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
+        <v>1</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -15261,25 +15187,32 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA84" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:41</t>
+        </is>
+      </c>
+      <c r="Z84" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA84" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="85" ht="29" customHeight="1" s="13">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B85" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>GC1007_813</t>
+          <t>GC1007_814</t>
         </is>
       </c>
       <c r="F85" s="11" t="inlineStr">
@@ -15300,10 +15233,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L85" s="14" t="inlineStr">
         <is>
@@ -15330,35 +15263,33 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R85" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="S85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
+        <v>1</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -15370,25 +15301,32 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:42</t>
+        </is>
+      </c>
+      <c r="Z85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA85" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="86" ht="29" customHeight="1" s="13">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B86" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GC1007_814</t>
+          <t>GC1007_815</t>
         </is>
       </c>
       <c r="F86" s="11" t="inlineStr">
@@ -15409,10 +15347,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L86" s="14" t="inlineStr">
         <is>
@@ -15439,9 +15377,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q86" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R86" s="14" t="inlineStr">
@@ -15449,25 +15387,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S86" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="T86" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U86" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
+        <v>1</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -15479,25 +15415,32 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA86" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:43</t>
+        </is>
+      </c>
+      <c r="Z86" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA86" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="87" ht="29" customHeight="1" s="13">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B87" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GC1007_815</t>
+          <t>GC1007_816</t>
         </is>
       </c>
       <c r="F87" s="11" t="inlineStr">
@@ -15518,10 +15461,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L87" s="14" t="inlineStr">
         <is>
@@ -15548,9 +15491,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q87" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R87" s="14" t="inlineStr">
@@ -15558,25 +15501,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S87" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T87" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="U87" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V87" t="n">
+        <v>1</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -15588,25 +15529,32 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA87" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:44</t>
+        </is>
+      </c>
+      <c r="Z87" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA87" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="88" ht="29" customHeight="1" s="13">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B88" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GC1007_816</t>
+          <t>GC1007_817</t>
         </is>
       </c>
       <c r="F88" s="11" t="inlineStr">
@@ -15627,10 +15575,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L88" s="14" t="inlineStr">
         <is>
@@ -15657,9 +15605,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q88" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R88" s="14" t="inlineStr">
@@ -15667,25 +15615,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S88" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T88" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U88" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
+        <v>1</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -15697,25 +15643,32 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA88" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:45</t>
+        </is>
+      </c>
+      <c r="Z88" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA88" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="89" ht="29" customHeight="1" s="13">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B89" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>GC1007_817</t>
+          <t>GC1007_818</t>
         </is>
       </c>
       <c r="F89" s="11" t="inlineStr">
@@ -15736,10 +15689,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L89" s="14" t="inlineStr">
         <is>
@@ -15766,9 +15719,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R89" s="14" t="inlineStr">
@@ -15776,25 +15729,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
+        <v>1</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -15806,25 +15757,37 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA89" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:46</t>
+        </is>
+      </c>
+      <c r="Z89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA89" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="90" ht="29" customHeight="1" s="13">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B90" t="n">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Nullable object must have a value.","ExceptionType":"System.InvalidOperationException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;SubmitGeneralConsent&gt;d__3.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 101\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__0.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GC1007_818</t>
+          <t>GC1007_819</t>
         </is>
       </c>
       <c r="F90" s="11" t="inlineStr">
@@ -15845,10 +15808,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L90" s="14" t="inlineStr">
         <is>
@@ -15875,9 +15838,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R90" s="14" t="inlineStr">
@@ -15885,29 +15848,27 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
+      <c r="S90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V90" t="n">
+        <v>1</v>
+      </c>
+      <c r="W90" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -15915,25 +15876,32 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA90" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:47</t>
+        </is>
+      </c>
+      <c r="Z90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA90" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="91" ht="29" customHeight="1" s="13">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B91" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GC1007_819</t>
+          <t>GC1007_820</t>
         </is>
       </c>
       <c r="F91" s="11" t="inlineStr">
@@ -15954,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L91" s="14" t="inlineStr">
         <is>
@@ -15984,9 +15952,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R91" s="14" t="inlineStr">
@@ -15994,55 +15962,62 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
+        <v>1</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
           <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
-      <c r="X91" t="n">
-        <v>1</v>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA91" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:48</t>
+        </is>
+      </c>
+      <c r="Z91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA91" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="92" ht="29" customHeight="1" s="13">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B92" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GC1007_820</t>
+          <t>GC1007_821</t>
         </is>
       </c>
       <c r="F92" s="11" t="inlineStr">
@@ -16063,10 +16038,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L92" s="14" t="inlineStr">
         <is>
@@ -16093,9 +16068,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R92" s="14" t="inlineStr">
@@ -16103,25 +16078,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
+        <v>1</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -16131,27 +16104,34 @@
       <c r="X92" t="n">
         <v>1</v>
       </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA92" t="n">
-        <v>0</v>
+      <c r="Y92" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="Z92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA92" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="93" ht="29" customHeight="1" s="13">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B93" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>GC1007_821</t>
+          <t>GC1007_822</t>
         </is>
       </c>
       <c r="F93" s="11" t="inlineStr">
@@ -16172,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L93" s="14" t="inlineStr">
         <is>
@@ -16202,9 +16182,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q93" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R93" s="14" t="inlineStr">
@@ -16212,25 +16192,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S93" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T93" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U93" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
+        <v>1</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -16242,25 +16220,33 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA93" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:50</t>
+        </is>
+      </c>
+      <c r="Z93" s="14" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="AA93" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
       </c>
     </row>
     <row r="94" ht="29" customHeight="1" s="13">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
       <c r="B94" t="n">
-        <v>400</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GC1007_822</t>
+          <t>GC1007_823</t>
         </is>
       </c>
       <c r="F94" s="11" t="inlineStr">
@@ -16281,10 +16267,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="14" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="L94" s="14" t="inlineStr">
         <is>
@@ -16311,9 +16297,9 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>email</t>
+      <c r="Q94" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
       <c r="R94" s="14" t="inlineStr">
@@ -16321,25 +16307,23 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
+      <c r="S94" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="T94" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="U94" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="V94" t="n">
+        <v>1</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -16351,16 +16335,18 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA94" t="n">
-        <v>0</v>
+          <t>2022-07-27T23:59:59+07:51</t>
+        </is>
+      </c>
+      <c r="Z94" s="14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="AA94" s="14" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CollectionPointList" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="CollectionPointInfo" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="CollectionPointInfo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="GeneralConsentList" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GeneralConsentSubmit" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="HealthCheckLiveness" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="HealthCheckReadiness" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="GeneralConsentInfo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GeneralConsentSubmit" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="HealthCheckLiveness" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="HealthCheckReadiness" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -130,7 +131,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,11 +528,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="2"/>
-    <col width="19.26953125" customWidth="1" style="13" min="3" max="3"/>
-    <col width="33.81640625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="12.6328125" customWidth="1" style="13" min="5" max="5"/>
-    <col width="33.81640625" customWidth="1" style="13" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="2"/>
+    <col width="19.26953125" customWidth="1" style="18" min="3" max="3"/>
+    <col width="33.81640625" customWidth="1" style="18" min="4" max="4"/>
+    <col width="12.6328125" customWidth="1" style="18" min="5" max="5"/>
+    <col width="33.81640625" customWidth="1" style="18" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -795,8 +797,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="5"/>
-    <col width="38.453125" customWidth="1" style="13" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="5"/>
+    <col width="38.453125" customWidth="1" style="18" min="6" max="6"/>
     <col width="8.7265625" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -932,29 +934,29 @@
   </sheetPr>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="2"/>
-    <col width="22.1796875" customWidth="1" style="13" min="3" max="3"/>
-    <col width="59.453125" customWidth="1" style="13" min="4" max="4"/>
-    <col width="31.36328125" customWidth="1" style="13" min="5" max="5"/>
-    <col width="41.36328125" customWidth="1" style="13" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="2"/>
+    <col width="22.1796875" customWidth="1" style="18" min="3" max="3"/>
+    <col width="59.453125" customWidth="1" style="18" min="4" max="4"/>
+    <col width="31.36328125" customWidth="1" style="18" min="5" max="5"/>
+    <col width="41.36328125" customWidth="1" style="18" min="6" max="6"/>
     <col width="19.26953125" customWidth="1" style="5" min="7" max="7"/>
     <col width="20.26953125" customWidth="1" style="5" min="8" max="8"/>
     <col width="20.36328125" customWidth="1" style="5" min="9" max="9"/>
     <col width="20.453125" customWidth="1" style="5" min="10" max="10"/>
-    <col width="24.81640625" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
-    <col width="28.90625" customWidth="1" style="13" min="12" max="12"/>
-    <col width="31.08984375" customWidth="1" style="13" min="13" max="13"/>
-    <col width="23.1796875" customWidth="1" style="13" min="14" max="14"/>
-    <col width="26.54296875" customWidth="1" style="13" min="15" max="15"/>
-    <col width="25.26953125" customWidth="1" style="13" min="16" max="16"/>
+    <col width="24.81640625" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="28.90625" customWidth="1" style="18" min="12" max="12"/>
+    <col width="31.08984375" customWidth="1" style="18" min="13" max="13"/>
+    <col width="23.1796875" customWidth="1" style="18" min="14" max="14"/>
+    <col width="26.54296875" customWidth="1" style="18" min="15" max="15"/>
+    <col width="25.26953125" customWidth="1" style="18" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1050,7 +1052,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1069,11 +1071,6 @@
       <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -1108,7 +1105,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="43.5" customHeight="1" s="13">
+    <row r="3" ht="43.5" customHeight="1" s="18">
       <c r="A3" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1119,7 +1116,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1139,11 +1136,6 @@
       <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -1152,33 +1144,13 @@
           <t>Test QA</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="43.5" customHeight="1" s="13">
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="43.5" customHeight="1" s="18">
       <c r="A4" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1189,7 +1161,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","ConsentDateTimeDisplay":"21/07/2022 13:39","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","ConsentDateTimeDisplay":"25/07/2022 13:54","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","ConsentDateTimeDisplay":"25/07/2022 13:57","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":59,"CollectionPointId":43,"TotalTransactions":2,"FullName":"Chompoo Test","CollectionPointGuid":"D3C1F721-A722-4F89-D672-951BC8B62274","ConsentDateTime":"2022-07-25T08:55:29+00:00","ConsentDateTimeDisplay":"25/07/2022 15:55","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"chanikarnk@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-21T06:39:51+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:54:32+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:57:15+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":59,"CollectionPointId":43,"TotalTransactions":2,"FullName":"Chompoo Test","CollectionPointGuid":"D3C1F721-A722-4F89-D672-951BC8B62274","ConsentDateTime":"2022-07-25T08:55:29+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"chanikarnk@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T08:55:29+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1209,46 +1181,21 @@
       <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+      <c r="K4" s="5" t="n"/>
       <c r="L4" s="5" t="inlineStr">
         <is>
           <t>0987654321</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="43.5" customHeight="1" s="13">
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="43.5" customHeight="1" s="18">
       <c r="A5" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1259,7 +1206,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","ConsentDateTimeDisplay":"25/07/2022 13:54","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","ConsentDateTimeDisplay":"25/07/2022 13:57","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":59,"CollectionPointId":43,"TotalTransactions":2,"FullName":"Chompoo Test","CollectionPointGuid":"D3C1F721-A722-4F89-D672-951BC8B62274","ConsentDateTime":"2022-07-25T08:55:29+00:00","ConsentDateTimeDisplay":"25/07/2022 15:55","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"chanikarnk@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":90,"CollectionPointId":42,"TotalTransactions":19,"FullName":"Test QA AAAB","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-26T07:41:07+00:00","ConsentDateTimeDisplay":"26/07/2022 14:41","WebsiteId":5,"CollectionPointVersion":4,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:54:32+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:57:15+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":59,"CollectionPointId":43,"TotalTransactions":2,"FullName":"Chompoo Test","CollectionPointGuid":"D3C1F721-A722-4F89-D672-951BC8B62274","ConsentDateTime":"2022-07-25T08:55:29+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"chanikarnk@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T08:55:29+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":90,"CollectionPointId":42,"TotalTransactions":19,"FullName":"Test QA AAAB","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-26T07:41:07+00:00","WebsiteId":5,"CollectionPointVersion":4,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T07:41:07+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1279,46 +1226,21 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="inlineStr">
         <is>
           <t>6036287406053</t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" s="13">
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" s="18">
       <c r="A6" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1329,7 +1251,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","ConsentDateTimeDisplay":"20/07/2022 15:41","WebsiteId":1,"CollectionPointVersion":2,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","ConsentDateTimeDisplay":"21/07/2022 13:39","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":30,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran Le","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:43:01+00:00","ConsentDateTimeDisplay":"21/07/2022 13:43","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987652222","Email":"niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","ConsentDateTimeDisplay":"25/07/2022 13:54","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","ConsentDateTimeDisplay":"25/07/2022 13:57","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","WebsiteId":1,"CollectionPointVersion":2,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-20T08:41:25+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":29,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:39:51+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987654321","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-21T06:39:51+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":30,"CollectionPointId":41,"TotalTransactions":1,"FullName":"Niran Le","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-21T06:43:01+00:00","WebsiteId":1,"CollectionPointVersion":3,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0987652222","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-21T06:43:01+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":43,"CollectionPointId":7,"TotalTransactions":2,"FullName":"Test QA AAA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:54:32+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:54:32+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":47,"CollectionPointId":7,"TotalTransactions":4,"FullName":"Test QA AAAB","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-25T06:57:15+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-25T06:57:15+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1349,46 +1271,21 @@
       <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
       <c r="N6" s="8" t="inlineStr">
         <is>
           <t>Niranl@viriyah.co.th</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" s="13">
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="18">
       <c r="A7" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1399,7 +1296,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1419,46 +1316,21 @@
       <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
       <c r="O7" s="5" t="inlineStr">
         <is>
           <t>2022-05-30 00:00:00</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" s="13">
+      <c r="P7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" s="18">
       <c r="A8" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1469,7 +1341,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1489,46 +1361,21 @@
       <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="5" t="n"/>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>2022-08-02 23:59:59</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="13">
+    <row r="9" ht="16.5" customHeight="1" s="18">
       <c r="A9" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1539,7 +1386,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1559,46 +1406,17 @@
       <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" s="13">
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="5" t="n"/>
+      <c r="P9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" s="18">
       <c r="A10" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1609,7 +1427,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1629,46 +1447,17 @@
       <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="43.5" customHeight="1" s="13">
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="5" t="n"/>
+      <c r="P10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="43.5" customHeight="1" s="18">
       <c r="A11" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1679,7 +1468,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1699,11 +1488,6 @@
       <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1738,7 +1522,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="58" customHeight="1" s="13">
+    <row r="12" ht="58" customHeight="1" s="18">
       <c r="A12" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -1749,7 +1533,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","ConsentDateTimeDisplay":"26/07/2022 13:47","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":12,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-26T06:47:50+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1769,11 +1553,6 @@
       </c>
       <c r="H12" t="n">
         <v>5</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1893,44 +1672,15 @@
       <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L13" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N13" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
+      <c r="O13" s="5" t="n"/>
+      <c r="P13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1962,46 +1712,17 @@
       <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L14" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M14" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N14" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="43.5" customHeight="1" s="13">
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="5" t="n"/>
+      <c r="O14" s="5" t="n"/>
+      <c r="P14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="43.5" customHeight="1" s="18">
       <c r="A15" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2032,46 +1753,17 @@
       <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N15" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="43.5" customHeight="1" s="13">
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="5" t="n"/>
+      <c r="O15" s="5" t="n"/>
+      <c r="P15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="43.5" customHeight="1" s="18">
       <c r="A16" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2102,46 +1794,17 @@
       <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N16" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="43.5" customHeight="1" s="13">
+      <c r="K16" s="5" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="8" t="n"/>
+      <c r="O16" s="5" t="n"/>
+      <c r="P16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="43.5" customHeight="1" s="18">
       <c r="A17" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2172,46 +1835,17 @@
       <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N17" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="43.5" customHeight="1" s="13">
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="8" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="43.5" customHeight="1" s="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2246,46 +1880,17 @@
           <t>missing</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N18" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="43.5" customHeight="1" s="13">
+      <c r="K18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+      <c r="N18" s="8" t="n"/>
+      <c r="O18" s="5" t="n"/>
+      <c r="P18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="43.5" customHeight="1" s="18">
       <c r="A19" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2318,46 +1923,17 @@
       <c r="H19" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>0987654321</t>
-        </is>
-      </c>
-      <c r="M19" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N19" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="43.5" customHeight="1" s="13">
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="8" t="n"/>
+      <c r="O19" s="5" t="n"/>
+      <c r="P19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="43.5" customHeight="1" s="18">
       <c r="A20" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2390,46 +1966,17 @@
           <t>missing</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>0987654322</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N20" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:01</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:60</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="43.5" customHeight="1" s="13">
+      <c r="K20" s="5" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
+      <c r="N20" s="8" t="n"/>
+      <c r="O20" s="5" t="n"/>
+      <c r="P20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="43.5" customHeight="1" s="18">
       <c r="A21" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2470,38 +2017,14 @@
           <t>missing</t>
         </is>
       </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>0987654323</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N21" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:02</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:61</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="43.5" customHeight="1" s="13">
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="8" t="n"/>
+      <c r="O21" s="5" t="n"/>
+      <c r="P21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="43.5" customHeight="1" s="18">
       <c r="A22" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2540,38 +2063,14 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L22" s="5" t="inlineStr">
-        <is>
-          <t>0987654324</t>
-        </is>
-      </c>
-      <c r="M22" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N22" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:03</t>
-        </is>
-      </c>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:62</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="43.5" customHeight="1" s="13">
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="8" t="n"/>
+      <c r="O22" s="5" t="n"/>
+      <c r="P22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="43.5" customHeight="1" s="18">
       <c r="A23" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2602,48 +2101,19 @@
       <c r="H23" t="n">
         <v>5</v>
       </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L23" s="5" t="inlineStr">
-        <is>
-          <t>0987654325</t>
-        </is>
-      </c>
-      <c r="M23" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N23" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:04</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:63</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="43.5" customHeight="1" s="13">
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="8" t="n"/>
+      <c r="O23" s="5" t="n"/>
+      <c r="P23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="43.5" customHeight="1" s="18">
       <c r="A24" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2674,11 +2144,6 @@
       <c r="H24" t="n">
         <v>5</v>
       </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
@@ -2713,7 +2178,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="43.5" customHeight="1" s="13">
+    <row r="25" ht="43.5" customHeight="1" s="18">
       <c r="A25" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2744,11 +2209,6 @@
       <c r="H25" t="n">
         <v>5</v>
       </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -2757,33 +2217,13 @@
           <t>missing</t>
         </is>
       </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>0987654327</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N25" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:06</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:65</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="43.5" customHeight="1" s="13">
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+      <c r="N25" s="8" t="n"/>
+      <c r="O25" s="5" t="n"/>
+      <c r="P25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="43.5" customHeight="1" s="18">
       <c r="A26" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2814,46 +2254,21 @@
       <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
+      <c r="K26" s="5" t="n"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N26" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:07</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:66</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="43.5" customHeight="1" s="13">
+      <c r="M26" s="5" t="n"/>
+      <c r="N26" s="8" t="n"/>
+      <c r="O26" s="5" t="n"/>
+      <c r="P26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="43.5" customHeight="1" s="18">
       <c r="A27" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2884,46 +2299,21 @@
       <c r="H27" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>0987654329</t>
-        </is>
-      </c>
+      <c r="K27" s="5" t="n"/>
+      <c r="L27" s="5" t="n"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="N27" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:08</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:67</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="43.5" customHeight="1" s="13">
+      <c r="N27" s="8" t="n"/>
+      <c r="O27" s="5" t="n"/>
+      <c r="P27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="43.5" customHeight="1" s="18">
       <c r="A28" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -2954,46 +2344,21 @@
       <c r="H28" t="n">
         <v>5</v>
       </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>0987654330</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
+      <c r="K28" s="5" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:09</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:68</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="43.5" customHeight="1" s="13">
+      <c r="O28" s="5" t="n"/>
+      <c r="P28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="43.5" customHeight="1" s="18">
       <c r="A29" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3004,7 +2369,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3024,46 +2389,21 @@
       <c r="H29" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>0987654331</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N29" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
+      <c r="K29" s="5" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+      <c r="N29" s="8" t="n"/>
       <c r="O29" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:69</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="43.5" customHeight="1" s="13">
+      <c r="P29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="43.5" customHeight="1" s="18">
       <c r="A30" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3074,7 +2414,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3094,46 +2434,21 @@
       <c r="H30" t="n">
         <v>5</v>
       </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>0987654332</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N30" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:11</t>
-        </is>
-      </c>
+      <c r="K30" s="5" t="n"/>
+      <c r="L30" s="5" t="n"/>
+      <c r="M30" s="5" t="n"/>
+      <c r="N30" s="8" t="n"/>
+      <c r="O30" s="5" t="n"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="43.5" customHeight="1" s="13">
+    <row r="31" ht="43.5" customHeight="1" s="18">
       <c r="A31" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3154,7 +2469,7 @@
       </c>
       <c r="F31" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Header _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Header 
 - Authorization  </t>
         </is>
       </c>
@@ -3164,46 +2479,17 @@
       <c r="H31" t="n">
         <v>5</v>
       </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="inlineStr">
-        <is>
-          <t>0987654333</t>
-        </is>
-      </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N31" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:12</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:71</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="43.5" customHeight="1" s="13">
+      <c r="K31" s="5" t="n"/>
+      <c r="L31" s="5" t="n"/>
+      <c r="M31" s="5" t="n"/>
+      <c r="N31" s="8" t="n"/>
+      <c r="O31" s="5" t="n"/>
+      <c r="P31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="43.5" customHeight="1" s="18">
       <c r="A32" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3214,7 +2500,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3224,7 +2510,7 @@
       </c>
       <c r="F32" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Header _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Header _x000D_
 - CurrentUtcOffset  </t>
         </is>
       </c>
@@ -3234,46 +2520,17 @@
       <c r="H32" t="n">
         <v>5</v>
       </c>
-      <c r="I32" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L32" s="5" t="inlineStr">
-        <is>
-          <t>0987654334</t>
-        </is>
-      </c>
-      <c r="M32" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N32" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:13</t>
-        </is>
-      </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:72</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="43.5" customHeight="1" s="13">
+      <c r="K32" s="5" t="n"/>
+      <c r="L32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
+      <c r="N32" s="8" t="n"/>
+      <c r="O32" s="5" t="n"/>
+      <c r="P32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="43.5" customHeight="1" s="18">
       <c r="A33" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3284,7 +2541,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3294,7 +2551,7 @@
       </c>
       <c r="F33" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Header _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Header _x000D_
 - IsCurrentlyDst  </t>
         </is>
       </c>
@@ -3304,46 +2561,17 @@
       <c r="H33" t="n">
         <v>5</v>
       </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L33" s="5" t="inlineStr">
-        <is>
-          <t>0987654335</t>
-        </is>
-      </c>
-      <c r="M33" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N33" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O33" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:14</t>
-        </is>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:73</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="43.5" customHeight="1" s="13">
+      <c r="K33" s="5" t="n"/>
+      <c r="L33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
+      <c r="N33" s="8" t="n"/>
+      <c r="O33" s="5" t="n"/>
+      <c r="P33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="43.5" customHeight="1" s="18">
       <c r="A34" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3354,7 +2582,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":8,"CollectionPointId":7,"TotalTransactions":1,"FullName":"chanikarn","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-15T03:22:15+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0885632326","IdCardNumber":"1100201005988","Email":"chanikarnk@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:22:15+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":10,"CollectionPointId":21,"TotalTransactions":2,"FullName":"Rajib Fahad","CollectionPointGuid":"5D10D64E-C34C-C745-A343-15977F9F53AB","ConsentDateTime":"2022-07-15T03:25:05+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","PhoneNumber":"0111111111","Email":"inkzavklak@midiharmonica.com","Remark":"Customer withdraw Com2 and com3 date : 15/7/2022","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":50293,"CreateByDisplay":"","CreateDate":"2022-07-15T03:25:05+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":12,"CollectionPointId":23,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอดุล","CollectionPointGuid":"EFE2FB01-C438-D91A-483E-F03C7507B945","ConsentDateTime":"2022-07-15T03:27:01+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:27:01+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":13,"CollectionPointId":18,"TotalTransactions":1,"FullName":"Sasikarn bumrongpol","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:27:08+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:27:08+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":14,"CollectionPointId":18,"TotalTransactions":1,"FullName":"eurng sasikarn","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:28:08+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:28:08+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3364,7 +2592,7 @@
       </c>
       <c r="F34" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Body 
 - PaginationParams  </t>
         </is>
       </c>
@@ -3378,46 +2606,17 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L34" s="5" t="inlineStr">
-        <is>
-          <t>0987654336</t>
-        </is>
-      </c>
-      <c r="M34" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N34" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O34" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:15</t>
-        </is>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:74</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="43.5" customHeight="1" s="13">
+      <c r="K34" s="5" t="n"/>
+      <c r="L34" s="5" t="n"/>
+      <c r="M34" s="5" t="n"/>
+      <c r="N34" s="8" t="n"/>
+      <c r="O34" s="5" t="n"/>
+      <c r="P34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="43.5" customHeight="1" s="18">
       <c r="A35" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3428,7 +2627,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3438,7 +2637,7 @@
       </c>
       <c r="F35" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  PaginationParams Offset  </t>
         </is>
       </c>
@@ -3450,46 +2649,17 @@
       <c r="H35" t="n">
         <v>5</v>
       </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L35" s="5" t="inlineStr">
-        <is>
-          <t>0987654337</t>
-        </is>
-      </c>
-      <c r="M35" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N35" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:16</t>
-        </is>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:75</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="43.5" customHeight="1" s="13">
+      <c r="K35" s="5" t="n"/>
+      <c r="L35" s="5" t="n"/>
+      <c r="M35" s="5" t="n"/>
+      <c r="N35" s="8" t="n"/>
+      <c r="O35" s="5" t="n"/>
+      <c r="P35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="43.5" customHeight="1" s="18">
       <c r="A36" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3500,7 +2670,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":8,"CollectionPointId":7,"TotalTransactions":1,"FullName":"chanikarn","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-15T03:22:15+00:00","ConsentDateTimeDisplay":"15/07/2022 10:22","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0885632326","IdCardNumber":"1100201005988","Email":"chanikarnk@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":13,"CollectionPointId":18,"TotalTransactions":1,"FullName":"Sasikarn bumrongpol","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:27:08+00:00","ConsentDateTimeDisplay":"15/07/2022 10:27","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":14,"CollectionPointId":18,"TotalTransactions":1,"FullName":"eurng sasikarn","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:28:08+00:00","ConsentDateTimeDisplay":"15/07/2022 10:28","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":10,"CollectionPointId":21,"TotalTransactions":2,"FullName":"Rajib Fahad","CollectionPointGuid":"5D10D64E-C34C-C745-A343-15977F9F53AB","ConsentDateTime":"2022-07-15T03:25:05+00:00","ConsentDateTimeDisplay":"15/07/2022 10:25","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","PhoneNumber":"0111111111","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":12,"CollectionPointId":23,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอดุล","CollectionPointGuid":"EFE2FB01-C438-D91A-483E-F03C7507B945","ConsentDateTime":"2022-07-15T03:27:01+00:00","ConsentDateTimeDisplay":"15/07/2022 10:27","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":8,"CollectionPointId":7,"TotalTransactions":1,"FullName":"chanikarn","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-15T03:22:15+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" IT-DATA-001, IT-DATA-002, IT-DATA-003","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0885632326","IdCardNumber":"1100201005988","Email":"chanikarnk@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:22:15+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":10,"CollectionPointId":21,"TotalTransactions":2,"FullName":"Rajib Fahad","CollectionPointGuid":"5D10D64E-C34C-C745-A343-15977F9F53AB","ConsentDateTime":"2022-07-15T03:25:05+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01","ConsentActive":0,"ConsentActiveDisplay":"","PhoneNumber":"0111111111","Email":"inkzavklak@midiharmonica.com","Remark":"Customer withdraw Com2 and com3 date : 15/7/2022","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":50293,"CreateByDisplay":"","CreateDate":"2022-07-15T03:25:05+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":12,"CollectionPointId":23,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอดุล","CollectionPointGuid":"EFE2FB01-C438-D91A-483E-F03C7507B945","ConsentDateTime":"2022-07-15T03:27:01+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com01, Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:27:01+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":13,"CollectionPointId":18,"TotalTransactions":1,"FullName":"Sasikarn bumrongpol","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:27:08+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:27:08+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"sms","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":14,"CollectionPointId":18,"TotalTransactions":1,"FullName":"eurng sasikarn","CollectionPointGuid":"8CCDC047-4E0C-D639-EFB3-09165CBCCC79","ConsentDateTime":"2022-07-15T03:28:08+00:00","WebsiteId":3,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" MKT VCare2022","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"vcare.viriyah.co.th/","PhoneNumber":"0912241938","Email":"sasikarn.eurng@gmail.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:28:08+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3510,7 +2680,7 @@
       </c>
       <c r="F36" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t xml:space="preserve">Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 - PaginationParams Limit  </t>
         </is>
       </c>
@@ -3522,46 +2692,17 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="43.5" customHeight="1" s="13">
+      <c r="K36" s="5" t="n"/>
+      <c r="L36" s="5" t="n"/>
+      <c r="M36" s="5" t="n"/>
+      <c r="N36" s="5" t="n"/>
+      <c r="O36" s="5" t="n"/>
+      <c r="P36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="43.5" customHeight="1" s="18">
       <c r="A37" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3572,7 +2713,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3582,7 +2723,7 @@
       </c>
       <c r="F37" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  SortingParams</t>
         </is>
       </c>
@@ -3602,38 +2743,14 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="43.5" customHeight="1" s="13">
+      <c r="K37" s="5" t="n"/>
+      <c r="L37" s="5" t="n"/>
+      <c r="M37" s="5" t="n"/>
+      <c r="N37" s="5" t="n"/>
+      <c r="O37" s="5" t="n"/>
+      <c r="P37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="43.5" customHeight="1" s="18">
       <c r="A38" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3644,7 +2761,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3654,7 +2771,7 @@
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  SortingParams SortName</t>
         </is>
       </c>
@@ -3672,38 +2789,14 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="43.5" customHeight="1" s="13">
+      <c r="K38" s="5" t="n"/>
+      <c r="L38" s="5" t="n"/>
+      <c r="M38" s="5" t="n"/>
+      <c r="N38" s="5" t="n"/>
+      <c r="O38" s="5" t="n"/>
+      <c r="P38" s="5" t="n"/>
+    </row>
+    <row r="39" ht="43.5" customHeight="1" s="18">
       <c r="A39" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3714,7 +2807,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3724,7 +2817,7 @@
       </c>
       <c r="F39" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  SortingParams SortDesc</t>
         </is>
       </c>
@@ -3734,48 +2827,19 @@
       <c r="H39" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P39" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="43.5" customHeight="1" s="13">
+      <c r="K39" s="5" t="n"/>
+      <c r="L39" s="5" t="n"/>
+      <c r="M39" s="5" t="n"/>
+      <c r="N39" s="5" t="n"/>
+      <c r="O39" s="5" t="n"/>
+      <c r="P39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="43.5" customHeight="1" s="18">
       <c r="A40" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3786,7 +2850,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3796,7 +2860,7 @@
       </c>
       <c r="F40" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body 
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body 
 -  GeneralConsentFilterKey</t>
         </is>
       </c>
@@ -3806,11 +2870,6 @@
       <c r="H40" t="n">
         <v>5</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
@@ -3845,7 +2904,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="43.5" customHeight="1" s="13">
+    <row r="41" ht="43.5" customHeight="1" s="18">
       <c r="A41" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3856,7 +2915,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":1,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":2,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":3,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":4,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":5,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3866,7 +2925,7 @@
       </c>
       <c r="F41" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  GeneralConsentFilterKey FullName</t>
         </is>
       </c>
@@ -3876,11 +2935,6 @@
       <c r="H41" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3889,33 +2943,13 @@
           <t>empty</t>
         </is>
       </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:22</t>
-        </is>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:81</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="43.5" customHeight="1" s="13">
+      <c r="L41" s="5" t="n"/>
+      <c r="M41" s="5" t="n"/>
+      <c r="N41" s="5" t="n"/>
+      <c r="O41" s="5" t="n"/>
+      <c r="P41" s="5" t="n"/>
+    </row>
+    <row r="42" ht="43.5" customHeight="1" s="18">
       <c r="A42" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3926,7 +2960,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3936,7 +2970,7 @@
       </c>
       <c r="F42" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body 
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body 
 -  GeneralConsentFilterKey PhoneNumber</t>
         </is>
       </c>
@@ -3946,46 +2980,21 @@
       <c r="H42" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K42" s="5" t="n"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="M42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P42" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="43.5" customHeight="1" s="13">
+      <c r="M42" s="5" t="n"/>
+      <c r="N42" s="5" t="n"/>
+      <c r="O42" s="5" t="n"/>
+      <c r="P42" s="5" t="n"/>
+    </row>
+    <row r="43" ht="43.5" customHeight="1" s="18">
       <c r="A43" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -3996,7 +3005,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4006,7 +3015,7 @@
       </c>
       <c r="F43" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  GeneralConsentFilterKey IdCardNumber</t>
         </is>
       </c>
@@ -4016,46 +3025,21 @@
       <c r="H43" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="K43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K43" s="5" t="n"/>
+      <c r="L43" s="5" t="n"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="N43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P43" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="43.5" customHeight="1" s="13">
+      <c r="N43" s="5" t="n"/>
+      <c r="O43" s="5" t="n"/>
+      <c r="P43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="43.5" customHeight="1" s="18">
       <c r="A44" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4066,7 +3050,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4076,7 +3060,7 @@
       </c>
       <c r="F44" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  GeneralConsentFilterKey Email</t>
         </is>
       </c>
@@ -4086,46 +3070,21 @@
       <c r="H44" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K44" s="5" t="n"/>
+      <c r="L44" s="5" t="n"/>
+      <c r="M44" s="5" t="n"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="O44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P44" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="43.5" customHeight="1" s="13">
+      <c r="O44" s="5" t="n"/>
+      <c r="P44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="43.5" customHeight="1" s="18">
       <c r="A45" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4136,7 +3095,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4146,7 +3105,7 @@
       </c>
       <c r="F45" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  GeneralConsentFilterKey StartDate</t>
         </is>
       </c>
@@ -4156,46 +3115,21 @@
       <c r="H45" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K45" s="5" t="n"/>
+      <c r="L45" s="5" t="n"/>
+      <c r="M45" s="5" t="n"/>
+      <c r="N45" s="5" t="n"/>
       <c r="O45" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="P45" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="43.5" customHeight="1" s="13">
+      <c r="P45" s="5" t="n"/>
+    </row>
+    <row r="46" ht="43.5" customHeight="1" s="18">
       <c r="A46" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4206,7 +3140,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4216,7 +3150,7 @@
       </c>
       <c r="F46" s="11" t="inlineStr">
         <is>
-          <t>Validate  การแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+          <t>Validate  การแสดงข้อมูล โดย  Empty value Parameter Body _x000D_
 -  GeneralConsentFilterKey EndDate</t>
         </is>
       </c>
@@ -4226,46 +3160,21 @@
       <c r="H46" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O46" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K46" s="5" t="n"/>
+      <c r="L46" s="5" t="n"/>
+      <c r="M46" s="5" t="n"/>
+      <c r="N46" s="5" t="n"/>
+      <c r="O46" s="5" t="n"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="58" customHeight="1" s="13">
+    <row r="47" ht="58" customHeight="1" s="18">
       <c r="A47" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4297,46 +3206,17 @@
       <c r="H47" t="n">
         <v>5</v>
       </c>
-      <c r="I47" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="inlineStr">
-        <is>
-          <t>Test QA</t>
-        </is>
-      </c>
-      <c r="L47" s="5" t="inlineStr">
-        <is>
-          <t>0987654349</t>
-        </is>
-      </c>
-      <c r="M47" s="5" t="inlineStr">
-        <is>
-          <t>6036287406053</t>
-        </is>
-      </c>
-      <c r="N47" s="8" t="inlineStr">
-        <is>
-          <t>Niranl@viriyah.co.th</t>
-        </is>
-      </c>
-      <c r="O47" s="5" t="inlineStr">
-        <is>
-          <t>2022-05-30 00:00:28</t>
-        </is>
-      </c>
-      <c r="P47" s="5" t="inlineStr">
-        <is>
-          <t>2022-08-02 23:59:87</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="58" customHeight="1" s="13">
+      <c r="K47" s="5" t="n"/>
+      <c r="L47" s="5" t="n"/>
+      <c r="M47" s="5" t="n"/>
+      <c r="N47" s="8" t="n"/>
+      <c r="O47" s="5" t="n"/>
+      <c r="P47" s="5" t="n"/>
+    </row>
+    <row r="48" ht="58" customHeight="1" s="18">
       <c r="A48" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4347,7 +3227,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4368,46 +3248,17 @@
       <c r="H48" t="n">
         <v>5</v>
       </c>
-      <c r="I48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P48" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="58" customHeight="1" s="13">
+      <c r="K48" s="5" t="n"/>
+      <c r="L48" s="5" t="n"/>
+      <c r="M48" s="5" t="n"/>
+      <c r="N48" s="5" t="n"/>
+      <c r="O48" s="5" t="n"/>
+      <c r="P48" s="5" t="n"/>
+    </row>
+    <row r="49" ht="58" customHeight="1" s="18">
       <c r="A49" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4418,7 +3269,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","ConsentDateTimeDisplay":"14/07/2022 18:32","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","ConsentDateTimeDisplay":"15/07/2022 10:10","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","ConsentDateTimeDisplay":"15/07/2022 10:13","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","ConsentDateTimeDisplay":"15/07/2022 10:17","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","ConsentDateTimeDisplay":"15/07/2022 10:07","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
+          <t>[{"ConsentId":2,"CollectionPointId":2,"TotalTransactions":2,"FullName":"Test Test","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-14T11:32:16+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0841111111","IdCardNumber":"1485985687931","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-14T11:32:16+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":3,"CollectionPointId":6,"TotalTransactions":1,"FullName":"Chalat Sarakham","CollectionPointGuid":"73A9FBEC-2E75-79CC-B2FC-64C8EEC16414","ConsentDateTime":"2022-07-15T03:07:30+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" ServiceNow Approve","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Samsung Internet for Android","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0875693085","IdCardNumber":"1103700374931","Email":"chalats@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:07:30+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":4,"CollectionPointId":2,"TotalTransactions":1,"FullName":"Amazon Coffee","CollectionPointGuid":"ABFCB002-C696-6A77-3BD9-EF9EB3E21A03","ConsentDateTime":"2022-07-15T03:10:45+00:00","WebsiteId":2,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" PP001","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.testing.com","PhoneNumber":"0111111111","IdCardNumber":"6953005238424","Email":"inkzavklak@midiharmonica.com","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:10:45+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":5,"CollectionPointId":4,"TotalTransactions":1,"FullName":"กัณตพงศ์ จันทร์โอกุล","CollectionPointGuid":"CDE99A2B-AAA5-75E8-5AC4-2CF685C261DE","ConsentDateTime":"2022-07-15T03:13:11+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","Purpose":" Com02, Com03","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0824832467","IdCardNumber":"1869900198370","Email":"gantapongj@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:13:11+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "},{"ConsentId":7,"CollectionPointId":5,"TotalTransactions":1,"FullName":"aaaa pppp","CollectionPointGuid":"713B983E-2703-E516-009A-EE9CB37BEE3D","ConsentDateTime":"2022-07-15T03:17:57+00:00","WebsiteId":1,"CollectionPointVersion":1,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"1234564789","IdCardNumber":"1212121212121","Email":"anutsarap@viriyah.co.th","TotalCount":0,"CompanyId":1,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":1,"CreateByDisplay":"","CreateDate":"2022-07-15T03:17:57+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4439,46 +3290,17 @@
       <c r="H49" t="n">
         <v>5</v>
       </c>
-      <c r="I49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P49" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="58" customHeight="1" s="13">
+      <c r="K49" s="5" t="n"/>
+      <c r="L49" s="5" t="n"/>
+      <c r="M49" s="5" t="n"/>
+      <c r="N49" s="5" t="n"/>
+      <c r="O49" s="5" t="n"/>
+      <c r="P49" s="5" t="n"/>
+    </row>
+    <row r="50" ht="58" customHeight="1" s="18">
       <c r="A50" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4512,46 +3334,17 @@
       <c r="H50" t="n">
         <v>5</v>
       </c>
-      <c r="I50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P50" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="43.5" customHeight="1" s="13">
+      <c r="K50" s="5" t="n"/>
+      <c r="L50" s="5" t="n"/>
+      <c r="M50" s="5" t="n"/>
+      <c r="N50" s="5" t="n"/>
+      <c r="O50" s="5" t="n"/>
+      <c r="P50" s="5" t="n"/>
+    </row>
+    <row r="51" ht="43.5" customHeight="1" s="18">
       <c r="A51" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4585,46 +3378,17 @@
           <t>format</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P51" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="58" customHeight="1" s="13">
+      <c r="K51" s="5" t="n"/>
+      <c r="L51" s="5" t="n"/>
+      <c r="M51" s="5" t="n"/>
+      <c r="N51" s="5" t="n"/>
+      <c r="O51" s="5" t="n"/>
+      <c r="P51" s="5" t="n"/>
+    </row>
+    <row r="52" ht="58" customHeight="1" s="18">
       <c r="A52" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4635,7 +3399,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"Invalid column name 'ZmRbnNeanN'.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Invalid column name 'UbADXRkGTu'.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4664,38 +3428,14 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P52" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="62.5" customHeight="1" s="13">
+      <c r="K52" s="5" t="n"/>
+      <c r="L52" s="5" t="n"/>
+      <c r="M52" s="5" t="n"/>
+      <c r="N52" s="5" t="n"/>
+      <c r="O52" s="5" t="n"/>
+      <c r="P52" s="5" t="n"/>
+    </row>
+    <row r="53" ht="62.5" customHeight="1" s="18">
       <c r="A53" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4706,7 +3446,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{"Message":"An error has occurred.","ExceptionMessage":"The identifier that starts with 'wkqbtmsrtkkelpuxylufauwmlbcwstdbshktqutqaiiabtmtnvceubfxdbxscwniugzfkzfbauirqseobasrjukindtofxcecmhvdnjkjsgkzdkevxjejdmfjlcfwidr' is too long. Maximum length is 128.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"The identifier that starts with 'ufejhdlinwxuuwovoumyryeqczuzzqdzagtotbvklievqnoymlbmjehgxgutjmqoqpttxsxobpxgycakobhnlsvmspdxpxbmiotjuyhesqotucvwfshzpliabbdxkkef' is too long. Maximum length is 128.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentList&gt;d__1.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 64\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4735,38 +3475,14 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P53" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="58" customHeight="1" s="13">
+      <c r="K53" s="5" t="n"/>
+      <c r="L53" s="5" t="n"/>
+      <c r="M53" s="5" t="n"/>
+      <c r="N53" s="5" t="n"/>
+      <c r="O53" s="5" t="n"/>
+      <c r="P53" s="5" t="n"/>
+    </row>
+    <row r="54" ht="58" customHeight="1" s="18">
       <c r="A54" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4798,48 +3514,19 @@
       <c r="H54" t="n">
         <v>5</v>
       </c>
-      <c r="I54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="K54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P54" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="58" customHeight="1" s="13">
+      <c r="K54" s="5" t="n"/>
+      <c r="L54" s="5" t="n"/>
+      <c r="M54" s="5" t="n"/>
+      <c r="N54" s="5" t="n"/>
+      <c r="O54" s="5" t="n"/>
+      <c r="P54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="58" customHeight="1" s="18">
       <c r="A55" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4871,11 +3558,6 @@
       <c r="H55" t="n">
         <v>5</v>
       </c>
-      <c r="I55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
@@ -4884,33 +3566,13 @@
           <t>format</t>
         </is>
       </c>
-      <c r="L55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="58" customHeight="1" s="13">
+      <c r="L55" s="5" t="n"/>
+      <c r="M55" s="5" t="n"/>
+      <c r="N55" s="5" t="n"/>
+      <c r="O55" s="5" t="n"/>
+      <c r="P55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="58" customHeight="1" s="18">
       <c r="A56" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -4942,11 +3604,6 @@
       <c r="H56" t="n">
         <v>5</v>
       </c>
-      <c r="I56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
@@ -4955,33 +3612,13 @@
           <t>length</t>
         </is>
       </c>
-      <c r="L56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P56" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="58" customHeight="1" s="13">
+      <c r="L56" s="5" t="n"/>
+      <c r="M56" s="5" t="n"/>
+      <c r="N56" s="5" t="n"/>
+      <c r="O56" s="5" t="n"/>
+      <c r="P56" s="5" t="n"/>
+    </row>
+    <row r="57" ht="58" customHeight="1" s="18">
       <c r="A57" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5013,46 +3650,21 @@
       <c r="H57" t="n">
         <v>5</v>
       </c>
-      <c r="I57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K57" s="5" t="n"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="M57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P57" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="58" customHeight="1" s="13">
+      <c r="M57" s="5" t="n"/>
+      <c r="N57" s="5" t="n"/>
+      <c r="O57" s="5" t="n"/>
+      <c r="P57" s="5" t="n"/>
+    </row>
+    <row r="58" ht="58" customHeight="1" s="18">
       <c r="A58" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5084,46 +3696,21 @@
       <c r="H58" t="n">
         <v>5</v>
       </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K58" s="5" t="n"/>
       <c r="L58" s="5" t="inlineStr">
         <is>
           <t>length</t>
         </is>
       </c>
-      <c r="M58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P58" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="58" customHeight="1" s="13">
+      <c r="M58" s="5" t="n"/>
+      <c r="N58" s="5" t="n"/>
+      <c r="O58" s="5" t="n"/>
+      <c r="P58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="58" customHeight="1" s="18">
       <c r="A59" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5155,46 +3742,21 @@
       <c r="H59" t="n">
         <v>5</v>
       </c>
-      <c r="I59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K59" s="5" t="n"/>
+      <c r="L59" s="5" t="n"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="N59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="58" customHeight="1" s="13">
+      <c r="N59" s="5" t="n"/>
+      <c r="O59" s="5" t="n"/>
+      <c r="P59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="58" customHeight="1" s="18">
       <c r="A60" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5226,46 +3788,21 @@
       <c r="H60" t="n">
         <v>5</v>
       </c>
-      <c r="I60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K60" s="5" t="n"/>
+      <c r="L60" s="5" t="n"/>
       <c r="M60" s="5" t="inlineStr">
         <is>
           <t>length</t>
         </is>
       </c>
-      <c r="N60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P60" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="58" customHeight="1" s="13">
+      <c r="N60" s="5" t="n"/>
+      <c r="O60" s="5" t="n"/>
+      <c r="P60" s="5" t="n"/>
+    </row>
+    <row r="61" ht="58" customHeight="1" s="18">
       <c r="A61" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5297,46 +3834,21 @@
       <c r="H61" t="n">
         <v>5</v>
       </c>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K61" s="5" t="n"/>
+      <c r="L61" s="5" t="n"/>
+      <c r="M61" s="5" t="n"/>
       <c r="N61" s="12" t="inlineStr">
         <is>
           <t>Niranl.co.th</t>
         </is>
       </c>
-      <c r="O61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P61" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="58" customHeight="1" s="13">
+      <c r="O61" s="5" t="n"/>
+      <c r="P61" s="5" t="n"/>
+    </row>
+    <row r="62" ht="58" customHeight="1" s="18">
       <c r="A62" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5368,44 +3880,19 @@
       <c r="H62" t="n">
         <v>5</v>
       </c>
-      <c r="I62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="K62" s="5" t="n"/>
+      <c r="L62" s="5" t="n"/>
+      <c r="M62" s="5" t="n"/>
       <c r="N62" s="5" t="inlineStr">
         <is>
           <t>length</t>
         </is>
       </c>
-      <c r="O62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P62" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="O62" s="5" t="n"/>
+      <c r="P62" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5413,29 +3900,7 @@
     <hyperlink ref="N6" r:id="rId2"/>
     <hyperlink ref="N11" r:id="rId3"/>
     <hyperlink ref="N12" r:id="rId4"/>
-    <hyperlink ref="N13" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N15" r:id="rId7"/>
-    <hyperlink ref="N16" r:id="rId8"/>
-    <hyperlink ref="N17" r:id="rId9"/>
-    <hyperlink ref="N18" r:id="rId10"/>
-    <hyperlink ref="N19" r:id="rId11"/>
-    <hyperlink ref="N20" r:id="rId12"/>
-    <hyperlink ref="N21" r:id="rId13"/>
-    <hyperlink ref="N22" r:id="rId14"/>
-    <hyperlink ref="N23" r:id="rId15"/>
-    <hyperlink ref="N25" r:id="rId16"/>
-    <hyperlink ref="N26" r:id="rId17"/>
-    <hyperlink ref="N27" r:id="rId18"/>
-    <hyperlink ref="N29" r:id="rId19"/>
-    <hyperlink ref="N30" r:id="rId20"/>
-    <hyperlink ref="N31" r:id="rId21"/>
-    <hyperlink ref="N32" r:id="rId22"/>
-    <hyperlink ref="N33" r:id="rId23"/>
-    <hyperlink ref="N34" r:id="rId24"/>
-    <hyperlink ref="N35" r:id="rId25"/>
-    <hyperlink ref="N47" r:id="rId26"/>
-    <hyperlink ref="N61" display="Niranl@viriyah.co.th" r:id="rId27"/>
+    <hyperlink ref="N61" display="Niranl@viriyah.co.th" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5448,39 +3913,1134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA94"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23:D25"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="2"/>
-    <col width="23.7265625" customWidth="1" style="13" min="3" max="3"/>
-    <col width="25.26953125" customWidth="1" style="13" min="4" max="4"/>
-    <col width="15.7265625" customWidth="1" style="13" min="5" max="5"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="3"/>
+    <col width="32.6328125" customWidth="1" style="18" min="4" max="4"/>
+    <col width="13.453125" customWidth="1" style="18" min="5" max="5"/>
+    <col width="48.26953125" customWidth="1" style="11" min="6" max="6"/>
+    <col width="14.6328125" customWidth="1" style="5" min="7" max="7"/>
+    <col width="14.6328125" customWidth="1" style="18" min="8" max="11"/>
+    <col width="8.7265625" customWidth="1" style="18" min="12" max="18"/>
+    <col width="8.7265625" customWidth="1" style="18" min="19" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TestResult</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ExpectedApi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ExpectedRespone</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>actualRespone</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>TestCaseNumber</t>
+        </is>
+      </c>
+      <c r="F1" s="17" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>IdCardNumber</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>PhoneNumber</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>CollectionPointGuid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":0,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[{"PurposeId":10,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"},{"PurposeId":13,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"}],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GI1001_000</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>Validate การแสดงข้อมูล เมื่อ ใส่ Tag parameter ทั้งหมด</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>6036287406053</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Test QA</t>
+        </is>
+      </c>
+      <c r="I2" s="12" t="inlineStr">
+        <is>
+          <t>Niranl@viriyah.co.th</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>987B2762-32F0-D91A-2BC2-AE9AFD7858FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="29" customHeight="1" s="18">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GI1001_001</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล เมื่อ ใส่ Tag parameter only_x000D_
+- IdCardNumber</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>6036287406053</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="29" customHeight="1" s="18">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{"ConsentId":78,"CollectionPointId":7,"TotalTransactions":0,"FullName":"Test QA","CollectionPointGuid":"987B2762-32F0-D91A-2BC2-AE9AFD7858FE","ConsentDateTime":"2022-07-26T06:47:50+00:00","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[{"PurposeId":6,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"},{"PurposeId":12,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"},{"PurposeId":20,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"}],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"1","PhoneNumber":"0987654321","IdCardNumber":"6036287406053","Email":"Niranl@viriyah.co.th","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"-","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GI1001_002</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล เมื่อ ใส่ Tag parameter only_x000D_
+- Fullname</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Test QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="29" customHeight="1" s="18">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{"ConsentId":28,"CollectionPointId":40,"TotalTransactions":0,"FullName":"Niran L","CollectionPointGuid":"7C46AAB4-C9C0-B493-C001-33D2A664C00E","ConsentDateTime":"2022-07-20T08:41:25+00:00","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[{"PurposeId":10,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"},{"PurposeId":13,"CompanyId":1,"Version":0,"Expired":"1/1/0001 12:00:00 AM +00:00","Status":"","CreateBy":0,"CreateDate":"0001-01-01T00:00:00+00:00","UpdateBy":0,"UpdateDate":"0001-01-01T00:00:00+00:00"}],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"Chrome","FromWebsite":"www.viriyah.co.th","PhoneNumber":"0998765432","Email":"niranl@viriyah.co.th","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"email","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GI1001_003</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล เมื่อ ใส่ Tag parameter only_x000D_
+- Email</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>Niranl@viriyah.co.th</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="29" customHeight="1" s="18">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GI1001_004</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล เมื่อ ใส่ Tag parameter only_x000D_
+- PhoneNumber</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" s="18">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GI1001_005</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล เมื่อ ใส่ Tag parameter only_x000D_
+- CollectionPointGuid</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>987B2762-32F0-D91A-2BC2-AE9AFD7858FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>404</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+    &lt;head&gt;
+        &lt;title&gt;The resource cannot be found.&lt;/title&gt;
+        &lt;meta name="viewport" content="width=device-width" /&gt;
+        &lt;style&gt;
+         body {font-family:"Verdana";font-weight:normal;font-size: .7em;color:black;} 
+         p {font-family:"Verdana";font-weight:normal;color:black;margin-top: -5px}
+         b {font-family:"Verdana";font-weight:bold;color:black;margin-top: -5px}
+         H1 { font-family:"Verdana";font-weight:normal;font-size:18pt;color:red }
+         H2 { font-family:"Verdana";font-weight:normal;font-size:14pt;color:maroon }
+         pre {font-family:"Consolas","Lucida Console",Monospace;font-size:11pt;margin:0;padding:0.5em;line-height:14pt}
+         .marker {font-weight: bold; color: black;text-decoration: none;}
+         .version {color: gray;}
+         .error {margin-bottom: 10px;}
+         .expandable { text-decoration:underline; font-weight:bold; color:navy; cursor:pointer; }
+         @media screen and (max-width: 639px) {
+          pre { width: 440px; overflow: auto; white-space: pre-wrap; word-wrap: break-word; }
+         }
+         @media screen and (max-width: 479px) {
+          pre { width: 280px; }
+         }
+        &lt;/style&gt;
+    &lt;/head&gt;
+    &lt;body bgcolor="white"&gt;
+            &lt;span&gt;&lt;H1&gt;Server Error in '/' Application.&lt;hr width=100% size=1 color=silver&gt;&lt;/H1&gt;
+            &lt;h2&gt; &lt;i&gt;The resource cannot be found.&lt;/i&gt; &lt;/h2&gt;&lt;/span&gt;
+            &lt;font face="Arial, Helvetica, Geneva, SunSans-Regular, sans-serif "&gt;
+            &lt;b&gt; Description: &lt;/b&gt;HTTP 404. The resource you are looking for (or one of its dependencies) could have been removed, had its name changed, or is temporarily unavailable. &amp;nbsp;Please review the following URL and make sure that it is spelled correctly.
+            &lt;br&gt;&lt;br&gt;
+            &lt;b&gt; Requested URL: &lt;/b&gt;/cms/general-consent/infoAA&lt;br&gt;&lt;br&gt;
+            &lt;hr width=100% size=1 color=silver&gt;
+            &lt;b&gt;Version Information:&lt;/b&gt;&amp;nbsp;Microsoft .NET Framework Version:4.0.30319; ASP.NET Version:4.8.4494.0
+            &lt;/font&gt;
+    &lt;/body&gt;
+&lt;/html&gt;
+&lt;!-- 
+[HttpException]: The controller for path &amp;#39;/cms/general-consent/infoAA&amp;#39; was not found or does not implement IController.
+   at System.Web.Mvc.DefaultControllerFactory.GetControllerInstance(RequestContext requestContext, Type controllerType)
+   at System.Web.Mvc.DefaultControllerFactory.CreateController(RequestContext requestContext, String controllerName)
+   at System.Web.Mvc.MvcHandler.ProcessRequestInit(HttpContextBase httpContext, IController&amp; controller, IControllerFactory&amp; factory)
+   at System.Web.Mvc.MvcHandler.BeginProcessRequest(HttpContextBase httpContext, AsyncCallback callback, Object state)
+   at System.Web.Mvc.MvcHandler.BeginProcessRequest(HttpContext httpContext, AsyncCallback callback, Object state)
+   at System.Web.Mvc.MvcHandler.System.Web.IHttpAsyncHandler.BeginProcessRequest(HttpContext context, AsyncCallback cb, Object extraData)
+   at System.Web.HttpApplication.CallHandlerExecutionStep.System.Web.HttpApplication.IExecutionStep.Execute()
+   at System.Web.HttpApplication.&lt;&gt;c__DisplayClass285_0.&lt;ExecuteStepImpl&gt;b__0()
+   at System.Web.HttpApplication.StepInvoker.Invoke(Action executionStep)
+   at System.Web.HttpApplication.StepInvoker.&lt;&gt;c__DisplayClass4_0.&lt;Invoke&gt;b__0()
+   at Microsoft.AspNet.TelemetryCorrelation.TelemetryCorrelationHttpModule.OnExecuteRequestStep(HttpContextBase context, Action step)
+   at System.Web.HttpApplication.&lt;&gt;c__DisplayClass284_0.&lt;OnExecuteRequestStep&gt;b__0(Action nextStepAction)
+   at System.Web.HttpApplication.StepInvoker.Invoke(Action executionStep)
+   at System.Web.HttpApplication.ExecuteStepImpl(IExecutionStep step)
+   at System.Web.HttpApplication.ExecuteStep(IExecutionStep step, Boolean&amp; completedSynchronously)
+--&gt;&lt;!-- 
+This error page might contain sensitive information because ASP.NET is configured to show verbose error messages using &amp;lt;customErrors mode="Off"/&amp;gt;. Consider using &amp;lt;customErrors mode="On"/&amp;gt; or &amp;lt;customErrors mode="RemoteOnly"/&amp;gt; in production environments.--&gt;</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GC1002_200</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">URLไม่ถูกต้อง </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@CollectionPointGUID', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GC1002_201</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>Json ผิด format</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="43.5" customHeight="1" s="18">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>401</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GC1004_400</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Header _x000D_
+- Authorization</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="43.5" customHeight="1" s="18">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{"Message":"The request is invalid.","MessageDetail":"The parameters dictionary does not contain an entry for parameter 'currentUtcOffset' of type 'System.String' for method 'System.Threading.Tasks.Task`1[Wisework.ConsentManagementSystem.Api.GeneralConsent] GetGeneralConsentInfo(Wisework.ConsentManagementSystem.Api.GeneralConsentSearchParams, System.String, System.String, System.String)' in 'SEMS.API.Controllers.GeneralConsentController'. The dictionary must contain an entry for each parameter, including parameters that have null values."}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GC1004_401</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Header _x000D_
+- CurrentUtcOffset</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="43.5" customHeight="1" s="18">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>400</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{"Message":"The request is invalid.","MessageDetail":"The parameters dictionary does not contain an entry for parameter 'isCurrentlyDst' of type 'System.String' for method 'System.Threading.Tasks.Task`1[Wisework.ConsentManagementSystem.Api.GeneralConsent] GetGeneralConsentInfo(Wisework.ConsentManagementSystem.Api.GeneralConsentSearchParams, System.String, System.String, System.String)' in 'SEMS.API.Controllers.GeneralConsentController'. The dictionary must contain an entry for each parameter, including parameters that have null values."}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GC1004_402</t>
+        </is>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Header _x000D_
+- IsCurrentlyDst</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="43.5" customHeight="1" s="18">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>500</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@CardNumber', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GC1004_403</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Body _x000D_
+- IdCardNumber</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="43.5" customHeight="1" s="18">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@NameSurname', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GC1004_404</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Body _x000D_
+- Fullname</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="43.5" customHeight="1" s="18">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>500</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@Email', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GC1004_405</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Body _x000D_
+- Email</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="43.5" customHeight="1" s="18">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@Tel', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GC1004_406</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Body _x000D_
+- PhoneNumber</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="43.5" customHeight="1" s="18">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{"Message":"An error has occurred.","ExceptionMessage":"Procedure or function 'SP_CONSENT_CONSENT_INFO' expects parameter '@CollectionPointGUID', which was not supplied.","ExceptionType":"System.Data.SqlClient.SqlException","StackTrace":"   at SEMS.API.Controllers.GeneralConsentController.&lt;GetGeneralConsentInfo&gt;d__0.MoveNext() in D:\\PDPA\\PDPA\\SEMS.API\\Controllers\\GeneralConsentController.cs:line 44\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Threading.Tasks.TaskHelpersExtensions.&lt;CastToObject&gt;d__1`1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ApiControllerActionInvoker.&lt;InvokeActionAsyncCore&gt;d__1.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;CallOnActionExecutedAsync&gt;d__6.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Filters.ActionFilterAttribute.&lt;ExecuteActionFilterAsyncCore&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Controllers.ActionFilterResult.&lt;ExecuteAsync&gt;d__5.MoveNext()\r\n--- End of stack trace from previous location where exception was thrown ---\r\n   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)\r\n   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)\r\n   at System.Web.Http.Dispatcher.HttpControllerDispatcher.&lt;SendAsync&gt;d__15.MoveNext()"}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GC1004_407</t>
+        </is>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Missing tag Parameter Body _x000D_
+- CollectionPointGuid</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="43.5" customHeight="1" s="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>401</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GC1005_600</t>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดยEmpty value Parameter Header _x000D_
+- Authorization</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="43.5" customHeight="1" s="18">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GC1005_601</t>
+        </is>
+      </c>
+      <c r="F19" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดยEmpty value Parameter Header _x000D_
+- CurrentUtcOffset</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="43.5" customHeight="1" s="18">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GC1005_602</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดยEmpty value Parameter Header _x000D_
+- IsCurrentlyDst</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="43.5" customHeight="1" s="18">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GC1005_603</t>
+        </is>
+      </c>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+- IdCardNumber</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="43.5" customHeight="1" s="18">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GC1005_604</t>
+        </is>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+- Fullname</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="43.5" customHeight="1" s="18">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>200</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GC1005_605</t>
+        </is>
+      </c>
+      <c r="F23" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+- Email</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="43.5" customHeight="1" s="18">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GC1005_606</t>
+        </is>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+- PhoneNumber</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="43.5" customHeight="1" s="18">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GC1005_607</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Empty value Parameter Body _x000D_
+- CollectionPointGuid</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="29" customHeight="1" s="18">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>401</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Unauthorized</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GC1006_800</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validateการแสดงข้อมูล โดยParameter Invalid Header_x000D_
+- Authorization </t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="29" customHeight="1" s="18">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GC1006_801</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validateการแสดงข้อมูล โดยParameter Invalid Header_x000D_
+- CurrentUtcOffset </t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="29" customHeight="1" s="18">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>200</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GC1006_802</t>
+        </is>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validateการแสดงข้อมูล โดยParameter Invalid Header_x000D_
+- IsCurrentlyDst </t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="29" customHeight="1" s="18">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>200</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GC1006_803</t>
+        </is>
+      </c>
+      <c r="F29" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Parameter Invalid Body_x000D_
+- IdCardNumber Exceeding Length (256)</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="29" customHeight="1" s="18">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>200</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GC1006_804</t>
+        </is>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validateการแสดงข้อมูล โดย Parameter Invalid Body_x000D_
+- Fullname Exceeding Length (256) </t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="29" customHeight="1" s="18">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GC1006_805</t>
+        </is>
+      </c>
+      <c r="F31" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Parameter Invalid Body_x000D_
+- Email Exceeding Length (256)</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="29" customHeight="1" s="18">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GC1006_806</t>
+        </is>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Parameter Invalid Body_x000D_
+- PhoneNumber Exceeding Length (256)</t>
+        </is>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="29" customHeight="1" s="18">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>200</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{"ConsentId":0,"CollectionPointId":0,"TotalTransactions":0,"FullName":"","CollectionPointGuid":"","ConsentDateTime":"0001-01-01T00:00:00+00:00","ConsentDateTimeDisplay":"","WebsiteId":0,"CollectionPointVersion":0,"WebsiteCode":"","WebsiteDescription":"","PurposeId":0,"PurposeCode":"","PurposeDescription":"","PurposeGuid":"","PurposeList":[],"ConsentActive":0,"ConsentActiveDisplay":"","FromBrowser":"","FromWebsite":"","PhoneNumber":"","IdCardNumber":"","Email":"","Remark":"","EventCode":"","TotalCount":0,"CompanyId":0,"CompanyName":"","Version":0,"Status":"","StatusDisplay":"","CreateBy":0,"CreateByDisplay":"","CreateDate":"0001-01-01T00:00:00+00:00","CreateDateDisplay":"","UpdateBy":0,"UpdateByDisplay":"","UpdateDate":"0001-01-01T00:00:00+00:00","UpdateDateDisplay":"","VerifyType":"","Row":0,"TextMoreDetail":"","AtiveConsentDisplay":false,"IsStatus":false,"CreateSystemDisplay":" ","UpdateSystemDisplay":" "}</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GC1006_807</t>
+        </is>
+      </c>
+      <c r="F33" s="11" t="inlineStr">
+        <is>
+          <t>Validateการแสดงข้อมูล โดย Parameter Invalid Body_x000D_
+- CollectionPointGuid Exceeding Length (256)</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA94"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="2"/>
+    <col width="23.7265625" customWidth="1" style="18" min="3" max="3"/>
+    <col width="25.26953125" customWidth="1" style="18" min="4" max="4"/>
+    <col width="15.7265625" customWidth="1" style="18" min="5" max="5"/>
     <col width="48.26953125" customWidth="1" style="11" min="6" max="6"/>
     <col width="12.6328125" customWidth="1" style="14" min="7" max="7"/>
     <col width="39.08984375" customWidth="1" style="14" min="8" max="8"/>
     <col width="12.6328125" customWidth="1" style="14" min="9" max="10"/>
     <col width="13.453125" customWidth="1" style="14" min="11" max="11"/>
     <col width="12.6328125" customWidth="1" style="14" min="12" max="12"/>
-    <col width="24.453125" customWidth="1" style="13" min="13" max="13"/>
-    <col width="16.36328125" customWidth="1" style="13" min="14" max="14"/>
-    <col width="11.7265625" customWidth="1" style="13" min="15" max="15"/>
-    <col width="17.81640625" customWidth="1" style="13" min="16" max="16"/>
-    <col width="12.6328125" customWidth="1" style="13" min="17" max="18"/>
-    <col width="18.453125" customWidth="1" style="13" min="19" max="19"/>
-    <col width="12.6328125" customWidth="1" style="13" min="20" max="20"/>
-    <col width="14.08984375" customWidth="1" style="13" min="21" max="22"/>
-    <col width="34.90625" customWidth="1" style="13" min="23" max="23"/>
-    <col width="12.1796875" customWidth="1" style="13" min="24" max="24"/>
-    <col width="21.36328125" customWidth="1" style="13" min="25" max="25"/>
-    <col width="15.6328125" customWidth="1" style="13" min="26" max="27"/>
-    <col width="8.7265625" customWidth="1" style="13" min="28" max="96"/>
-    <col width="8.7265625" customWidth="1" style="13" min="97" max="16384"/>
+    <col width="24.453125" customWidth="1" style="18" min="13" max="13"/>
+    <col width="16.36328125" customWidth="1" style="18" min="14" max="14"/>
+    <col width="11.7265625" customWidth="1" style="18" min="15" max="15"/>
+    <col width="17.81640625" customWidth="1" style="18" min="16" max="16"/>
+    <col width="12.6328125" customWidth="1" style="18" min="17" max="18"/>
+    <col width="18.453125" customWidth="1" style="18" min="19" max="19"/>
+    <col width="12.6328125" customWidth="1" style="18" min="20" max="20"/>
+    <col width="14.08984375" customWidth="1" style="18" min="21" max="22"/>
+    <col width="34.90625" customWidth="1" style="18" min="23" max="23"/>
+    <col width="12.1796875" customWidth="1" style="18" min="24" max="24"/>
+    <col width="21.36328125" customWidth="1" style="18" min="25" max="25"/>
+    <col width="15.6328125" customWidth="1" style="18" min="26" max="27"/>
+    <col width="8.7265625" customWidth="1" style="18" min="28" max="111"/>
+    <col width="8.7265625" customWidth="1" style="18" min="112" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="15">
@@ -5620,7 +5180,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1" s="13">
+    <row r="2" ht="43.5" customHeight="1" s="18">
       <c r="A2" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5644,7 +5204,7 @@
       </c>
       <c r="H2" s="14" t="inlineStr">
         <is>
-          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00A</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I2" s="14" t="n">
@@ -5654,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L2" s="14" t="inlineStr">
         <is>
@@ -5663,12 +5223,12 @@
       </c>
       <c r="M2" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -5711,7 +5271,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEFA</t>
+          <t>049A4C85-58FF-27EC-7AB4-DBB83D44BEF0</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -5731,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="43.5" customHeight="1" s="13">
+    <row r="3" ht="43.5" customHeight="1" s="18">
       <c r="A3" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5765,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L3" s="14" t="inlineStr">
         <is>
@@ -5774,12 +5334,12 @@
       </c>
       <c r="M3" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -5842,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="43.5" customHeight="1" s="13">
+    <row r="4" ht="43.5" customHeight="1" s="18">
       <c r="A4" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5876,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L4" s="14" t="inlineStr">
         <is>
@@ -5885,12 +5445,12 @@
       </c>
       <c r="M4" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -5953,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="43.5" customHeight="1" s="13">
+    <row r="5" ht="43.5" customHeight="1" s="18">
       <c r="A5" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -5987,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L5" s="14" t="inlineStr">
         <is>
@@ -5996,12 +5556,12 @@
       </c>
       <c r="M5" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -6064,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1" s="13">
+    <row r="6" ht="43.5" customHeight="1" s="18">
       <c r="A6" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6098,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L6" s="14" t="inlineStr">
         <is>
@@ -6107,12 +5667,12 @@
       </c>
       <c r="M6" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6175,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="43.5" customHeight="1" s="13">
+    <row r="7" ht="43.5" customHeight="1" s="18">
       <c r="A7" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6209,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L7" s="14" t="inlineStr">
         <is>
@@ -6218,12 +5778,12 @@
       </c>
       <c r="M7" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -6286,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="43.5" customHeight="1" s="13">
+    <row r="8" ht="43.5" customHeight="1" s="18">
       <c r="A8" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6320,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L8" s="14" t="inlineStr">
         <is>
@@ -6329,12 +5889,12 @@
       </c>
       <c r="M8" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -6397,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="43.5" customHeight="1" s="13">
+    <row r="9" ht="43.5" customHeight="1" s="18">
       <c r="A9" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6431,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L9" s="14" t="inlineStr">
         <is>
@@ -6440,12 +6000,12 @@
       </c>
       <c r="M9" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -6508,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="43.5" customHeight="1" s="13">
+    <row r="10" ht="43.5" customHeight="1" s="18">
       <c r="A10" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6542,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L10" s="14" t="inlineStr">
         <is>
@@ -6551,12 +6111,12 @@
       </c>
       <c r="M10" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -6619,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="43.5" customHeight="1" s="13">
+    <row r="11" ht="43.5" customHeight="1" s="18">
       <c r="A11" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6653,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L11" s="14" t="inlineStr">
         <is>
@@ -6662,12 +6222,12 @@
       </c>
       <c r="M11" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -6730,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="43.5" customHeight="1" s="13">
+    <row r="12" ht="43.5" customHeight="1" s="18">
       <c r="A12" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6764,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L12" s="14" t="inlineStr">
         <is>
@@ -6773,12 +6333,12 @@
       </c>
       <c r="M12" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -6841,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="43.5" customHeight="1" s="13">
+    <row r="13" ht="43.5" customHeight="1" s="18">
       <c r="A13" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6875,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
@@ -6884,12 +6444,12 @@
       </c>
       <c r="M13" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -6952,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="43.5" customHeight="1" s="13">
+    <row r="14" ht="43.5" customHeight="1" s="18">
       <c r="A14" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -6986,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
@@ -6995,12 +6555,12 @@
       </c>
       <c r="M14" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7063,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="43.5" customHeight="1" s="13">
+    <row r="15" ht="43.5" customHeight="1" s="18">
       <c r="A15" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7097,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>1100</v>
+        <v>2147483647</v>
       </c>
       <c r="L15" s="14" t="inlineStr">
         <is>
@@ -7106,12 +6666,12 @@
       </c>
       <c r="M15" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7174,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" s="13">
+    <row r="16" ht="16.5" customHeight="1" s="18">
       <c r="A16" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7252,14 +6812,9 @@
           <t xml:space="preserve">URL  ไม่ถูกต้อง </t>
         </is>
       </c>
-      <c r="G16" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="H16" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I16" s="14" t="inlineStr">
@@ -7356,7 +6911,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" s="13">
+    <row r="17" ht="16.5" customHeight="1" s="18">
       <c r="A17" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7380,14 +6935,9 @@
           <t>Json ผิด format</t>
         </is>
       </c>
-      <c r="G17" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="H17" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
         </is>
       </c>
       <c r="I17" s="14" t="inlineStr">
@@ -7484,7 +7034,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" s="13">
+    <row r="18" ht="16.5" customHeight="1" s="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7510,9 +7060,6 @@
 - Uid </t>
         </is>
       </c>
-      <c r="G18" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -7536,7 +7083,7 @@
       </c>
       <c r="M18" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N18" s="5" t="inlineStr">
@@ -7604,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" s="13">
+    <row r="19" ht="16.5" customHeight="1" s="18">
       <c r="A19" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7625,9 +7172,6 @@
 - IdCardNumber </t>
         </is>
       </c>
-      <c r="G19" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="H19" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -7649,7 +7193,7 @@
       </c>
       <c r="M19" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N19" s="5" t="inlineStr">
@@ -7717,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="43.5" customHeight="1" s="13">
+    <row r="20" ht="43.5" customHeight="1" s="18">
       <c r="A20" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7738,9 +7282,6 @@
 - FullName </t>
         </is>
       </c>
-      <c r="G20" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="H20" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -7762,12 +7303,12 @@
       </c>
       <c r="M20" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N20" s="5" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>0981111111</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7830,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="43.5" customHeight="1" s="13">
+    <row r="21" ht="43.5" customHeight="1" s="18">
       <c r="A21" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7851,9 +7392,6 @@
 - Email </t>
         </is>
       </c>
-      <c r="G21" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="H21" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -7943,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="43.5" customHeight="1" s="13">
+    <row r="22" ht="43.5" customHeight="1" s="18">
       <c r="A22" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -7964,9 +7502,6 @@
 - PhoneNumber </t>
         </is>
       </c>
-      <c r="G22" s="14" t="n">
-        <v>20</v>
-      </c>
       <c r="H22" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -7988,7 +7523,7 @@
       </c>
       <c r="M22" s="12" t="inlineStr">
         <is>
-          <t>niranl@viriyah.co.th</t>
+          <t>automateqa009@gmail.com</t>
         </is>
       </c>
       <c r="N22" s="14" t="inlineStr">
@@ -8056,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="29" customHeight="1" s="13">
+    <row r="23" ht="29" customHeight="1" s="18">
       <c r="A23" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8081,111 +7616,39 @@
 - Authorization  </t>
         </is>
       </c>
-      <c r="G23" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="H23" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="I23" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="J23" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="K23" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L23" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
+        </is>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14" t="n">
+        <v>1005</v>
+      </c>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+      <c r="P23" s="14" t="n"/>
+      <c r="Q23" s="14" t="n"/>
+      <c r="R23" s="14" t="n"/>
+      <c r="S23" s="14" t="n"/>
+      <c r="T23" s="14" t="n"/>
+      <c r="U23" s="14" t="n"/>
       <c r="V23" t="n">
         <v>1</v>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="29" customHeight="1" s="13">
+      <c r="W23" s="14" t="n"/>
+      <c r="X23" s="14" t="n"/>
+      <c r="Y23" s="14" t="n"/>
+      <c r="Z23" s="14" t="n"/>
+      <c r="AA23" s="14" t="n"/>
+    </row>
+    <row r="24" ht="29" customHeight="1" s="18">
       <c r="A24" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8210,111 +7673,39 @@
 - CurrentUtcOffset  </t>
         </is>
       </c>
-      <c r="G24" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="H24" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="I24" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="J24" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="K24" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L24" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
+        </is>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14" t="n">
+        <v>1005</v>
+      </c>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+      <c r="P24" s="14" t="n"/>
+      <c r="Q24" s="14" t="n"/>
+      <c r="R24" s="14" t="n"/>
+      <c r="S24" s="14" t="n"/>
+      <c r="T24" s="14" t="n"/>
+      <c r="U24" s="14" t="n"/>
       <c r="V24" t="n">
         <v>1</v>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="29" customHeight="1" s="13">
+      <c r="W24" s="14" t="n"/>
+      <c r="X24" s="14" t="n"/>
+      <c r="Y24" s="14" t="n"/>
+      <c r="Z24" s="14" t="n"/>
+      <c r="AA24" s="14" t="n"/>
+    </row>
+    <row r="25" ht="29" customHeight="1" s="18">
       <c r="A25" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8339,111 +7730,39 @@
 - IsCurrentlyDst  </t>
         </is>
       </c>
-      <c r="G25" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="H25" s="14" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="I25" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="J25" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="K25" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="L25" s="14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
+          <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
+        </is>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14" t="n">
+        <v>1005</v>
+      </c>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+      <c r="P25" s="14" t="n"/>
+      <c r="Q25" s="14" t="n"/>
+      <c r="R25" s="14" t="n"/>
+      <c r="S25" s="14" t="n"/>
+      <c r="T25" s="14" t="n"/>
+      <c r="U25" s="14" t="n"/>
       <c r="V25" t="n">
         <v>1</v>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="29" customHeight="1" s="13">
+      <c r="W25" s="14" t="n"/>
+      <c r="X25" s="14" t="n"/>
+      <c r="Y25" s="14" t="n"/>
+      <c r="Z25" s="14" t="n"/>
+      <c r="AA25" s="14" t="n"/>
+    </row>
+    <row r="26" ht="29" customHeight="1" s="18">
       <c r="A26" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8463,11 +7782,6 @@
 - AgeRangeCode  </t>
         </is>
       </c>
-      <c r="G26" s="14" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
           <t>7C46AAB4-C9C0-B493-C001-33D2A664C00E</t>
@@ -8491,7 +7805,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="29" customHeight="1" s="13">
+    <row r="27" ht="29" customHeight="1" s="18">
       <c r="A27" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8539,7 +7853,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="29" customHeight="1" s="13">
+    <row r="28" ht="29" customHeight="1" s="18">
       <c r="A28" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8589,7 +7903,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="29" customHeight="1" s="13">
+    <row r="29" ht="29" customHeight="1" s="18">
       <c r="A29" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8639,7 +7953,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="29" customHeight="1" s="13">
+    <row r="30" ht="29" customHeight="1" s="18">
       <c r="A30" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8689,7 +8003,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="29" customHeight="1" s="13">
+    <row r="31" ht="29" customHeight="1" s="18">
       <c r="A31" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8737,7 +8051,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="29" customHeight="1" s="13">
+    <row r="32" ht="29" customHeight="1" s="18">
       <c r="A32" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8785,7 +8099,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="29" customHeight="1" s="13">
+    <row r="33" ht="29" customHeight="1" s="18">
       <c r="A33" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8833,7 +8147,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="29" customHeight="1" s="13">
+    <row r="34" ht="29" customHeight="1" s="18">
       <c r="A34" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8881,7 +8195,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="29" customHeight="1" s="13">
+    <row r="35" ht="29" customHeight="1" s="18">
       <c r="A35" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8929,7 +8243,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="29" customHeight="1" s="13">
+    <row r="36" ht="29" customHeight="1" s="18">
       <c r="A36" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -8977,7 +8291,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="29" customHeight="1" s="13">
+    <row r="37" ht="29" customHeight="1" s="18">
       <c r="A37" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9025,7 +8339,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="29" customHeight="1" s="13">
+    <row r="38" ht="29" customHeight="1" s="18">
       <c r="A38" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9073,7 +8387,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="29" customHeight="1" s="13">
+    <row r="39" ht="29" customHeight="1" s="18">
       <c r="A39" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9129,7 +8443,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="29" customHeight="1" s="13">
+    <row r="40" ht="29" customHeight="1" s="18">
       <c r="A40" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9185,7 +8499,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="29" customHeight="1" s="13">
+    <row r="41" ht="29" customHeight="1" s="18">
       <c r="A41" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9237,7 +8551,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="29" customHeight="1" s="13">
+    <row r="42" ht="29" customHeight="1" s="18">
       <c r="A42" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9294,7 +8608,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="29" customHeight="1" s="13">
+    <row r="43" ht="29" customHeight="1" s="18">
       <c r="A43" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9351,7 +8665,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="29" customHeight="1" s="13">
+    <row r="44" ht="29" customHeight="1" s="18">
       <c r="A44" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9408,7 +8722,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="29" customHeight="1" s="13">
+    <row r="45" ht="29" customHeight="1" s="18">
       <c r="A45" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9465,7 +8779,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="29" customHeight="1" s="13">
+    <row r="46" ht="29" customHeight="1" s="18">
       <c r="A46" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9522,7 +8836,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="29" customHeight="1" s="13">
+    <row r="47" ht="29" customHeight="1" s="18">
       <c r="A47" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9568,7 +8882,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="29" customHeight="1" s="13">
+    <row r="48" ht="29" customHeight="1" s="18">
       <c r="A48" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9609,7 +8923,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="29" customHeight="1" s="13">
+    <row r="49" ht="29" customHeight="1" s="18">
       <c r="A49" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9658,7 +8972,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="29" customHeight="1" s="13">
+    <row r="50" ht="29" customHeight="1" s="18">
       <c r="A50" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9715,7 +9029,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="29" customHeight="1" s="13">
+    <row r="51" ht="29" customHeight="1" s="18">
       <c r="A51" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9772,7 +9086,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="29" customHeight="1" s="13">
+    <row r="52" ht="29" customHeight="1" s="18">
       <c r="A52" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9826,7 +9140,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="29" customHeight="1" s="13">
+    <row r="53" ht="29" customHeight="1" s="18">
       <c r="A53" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9880,7 +9194,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="29" customHeight="1" s="13">
+    <row r="54" ht="29" customHeight="1" s="18">
       <c r="A54" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9934,7 +9248,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="29" customHeight="1" s="13">
+    <row r="55" ht="29" customHeight="1" s="18">
       <c r="A55" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -9991,7 +9305,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="29" customHeight="1" s="13">
+    <row r="56" ht="29" customHeight="1" s="18">
       <c r="A56" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10047,7 +9361,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="29" customHeight="1" s="13">
+    <row r="57" ht="29" customHeight="1" s="18">
       <c r="A57" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10103,7 +9417,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="29" customHeight="1" s="13">
+    <row r="58" ht="29" customHeight="1" s="18">
       <c r="A58" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10159,7 +9473,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="29" customHeight="1" s="13">
+    <row r="59" ht="29" customHeight="1" s="18">
       <c r="A59" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10215,7 +9529,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="29" customHeight="1" s="13">
+    <row r="60" ht="29" customHeight="1" s="18">
       <c r="A60" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10271,7 +9585,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="29" customHeight="1" s="13">
+    <row r="61" ht="29" customHeight="1" s="18">
       <c r="A61" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10327,7 +9641,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="29" customHeight="1" s="13">
+    <row r="62" ht="29" customHeight="1" s="18">
       <c r="A62" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10383,7 +9697,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="29" customHeight="1" s="13">
+    <row r="63" ht="29" customHeight="1" s="18">
       <c r="A63" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10439,7 +9753,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="29" customHeight="1" s="13">
+    <row r="64" ht="29" customHeight="1" s="18">
       <c r="A64" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10495,7 +9809,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="29" customHeight="1" s="13">
+    <row r="65" ht="29" customHeight="1" s="18">
       <c r="A65" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10547,7 +9861,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="29" customHeight="1" s="13">
+    <row r="66" ht="29" customHeight="1" s="18">
       <c r="A66" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10604,7 +9918,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="29" customHeight="1" s="13">
+    <row r="67" ht="29" customHeight="1" s="18">
       <c r="A67" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10661,7 +9975,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="29" customHeight="1" s="13">
+    <row r="68" ht="29" customHeight="1" s="18">
       <c r="A68" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10718,7 +10032,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="29" customHeight="1" s="13">
+    <row r="69" ht="29" customHeight="1" s="18">
       <c r="A69" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10775,7 +10089,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="29" customHeight="1" s="13">
+    <row r="70" ht="29" customHeight="1" s="18">
       <c r="A70" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10832,7 +10146,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="29" customHeight="1" s="13">
+    <row r="71" ht="29" customHeight="1" s="18">
       <c r="A71" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10889,7 +10203,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="29" customHeight="1" s="13">
+    <row r="72" ht="29" customHeight="1" s="18">
       <c r="A72" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10941,7 +10255,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="29" customHeight="1" s="13">
+    <row r="73" ht="29" customHeight="1" s="18">
       <c r="A73" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -10993,7 +10307,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="29" customHeight="1" s="13">
+    <row r="74" ht="29" customHeight="1" s="18">
       <c r="A74" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11045,7 +10359,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="29" customHeight="1" s="13">
+    <row r="75" ht="29" customHeight="1" s="18">
       <c r="A75" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11102,7 +10416,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="29" customHeight="1" s="13">
+    <row r="76" ht="29" customHeight="1" s="18">
       <c r="A76" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11161,7 +10475,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="29" customHeight="1" s="13">
+    <row r="77" ht="29" customHeight="1" s="18">
       <c r="A77" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11220,7 +10534,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="29" customHeight="1" s="13">
+    <row r="78" ht="29" customHeight="1" s="18">
       <c r="A78" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11279,7 +10593,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="29" customHeight="1" s="13">
+    <row r="79" ht="29" customHeight="1" s="18">
       <c r="A79" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11336,7 +10650,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="29" customHeight="1" s="13">
+    <row r="80" ht="29" customHeight="1" s="18">
       <c r="A80" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11392,7 +10706,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="29" customHeight="1" s="13">
+    <row r="81" ht="29" customHeight="1" s="18">
       <c r="A81" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11448,7 +10762,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="29" customHeight="1" s="13">
+    <row r="82" ht="29" customHeight="1" s="18">
       <c r="A82" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11504,7 +10818,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="29" customHeight="1" s="13">
+    <row r="83" ht="29" customHeight="1" s="18">
       <c r="A83" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11560,7 +10874,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="29" customHeight="1" s="13">
+    <row r="84" ht="29" customHeight="1" s="18">
       <c r="A84" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11616,7 +10930,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="29" customHeight="1" s="13">
+    <row r="85" ht="29" customHeight="1" s="18">
       <c r="A85" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11672,7 +10986,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="29" customHeight="1" s="13">
+    <row r="86" ht="29" customHeight="1" s="18">
       <c r="A86" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11728,7 +11042,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="29" customHeight="1" s="13">
+    <row r="87" ht="29" customHeight="1" s="18">
       <c r="A87" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11784,7 +11098,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="29" customHeight="1" s="13">
+    <row r="88" ht="29" customHeight="1" s="18">
       <c r="A88" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11840,7 +11154,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="29" customHeight="1" s="13">
+    <row r="89" ht="29" customHeight="1" s="18">
       <c r="A89" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11892,7 +11206,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="29" customHeight="1" s="13">
+    <row r="90" ht="29" customHeight="1" s="18">
       <c r="A90" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -11949,7 +11263,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="29" customHeight="1" s="13">
+    <row r="91" ht="29" customHeight="1" s="18">
       <c r="A91" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12006,7 +11320,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="29" customHeight="1" s="13">
+    <row r="92" ht="29" customHeight="1" s="18">
       <c r="A92" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12063,7 +11377,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="29" customHeight="1" s="13">
+    <row r="93" ht="29" customHeight="1" s="18">
       <c r="A93" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12120,7 +11434,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="29" customHeight="1" s="13">
+    <row r="94" ht="29" customHeight="1" s="18">
       <c r="A94" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12129,7 +11443,6 @@
       <c r="B94" t="n">
         <v>204</v>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>GC1007_823</t>
@@ -12223,7 +11536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12231,16 +11544,16 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="3"/>
-    <col width="19.1796875" customWidth="1" style="13" min="4" max="4"/>
-    <col width="12.6328125" customWidth="1" style="13" min="5" max="5"/>
-    <col width="27.453125" customWidth="1" style="13" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="3"/>
+    <col width="19.1796875" customWidth="1" style="18" min="4" max="4"/>
+    <col width="12.6328125" customWidth="1" style="18" min="5" max="5"/>
+    <col width="27.453125" customWidth="1" style="18" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12340,7 +11653,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="43.5" customHeight="1" s="13">
+    <row r="5" ht="43.5" customHeight="1" s="18">
       <c r="A5" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12359,14 +11672,14 @@
           <t>HL1004_400</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">Validate  การแสดงข้อมูล โดย Missing tag Parameter Header _x000D_
 - Authorization  </t>
         </is>
       </c>
     </row>
-    <row r="6" ht="51" customHeight="1" s="13">
+    <row r="6" ht="51" customHeight="1" s="18">
       <c r="A6" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12385,14 +11698,14 @@
           <t>HL1005_600</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">Validate   การแสดงข้อมูลสถานะ โดย Empty value Parameter Header _x000D_
 - Authorization  </t>
         </is>
       </c>
     </row>
-    <row r="7" ht="58" customHeight="1" s="13">
+    <row r="7" ht="58" customHeight="1" s="18">
       <c r="A7" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12411,7 +11724,7 @@
           <t>HL1006_800</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Validate  การแสดงข้อมูลสถานะ โดย Parameter Invalid Header_x000D_
 - Authorization _x000D_
@@ -12424,7 +11737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12438,8 +11751,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="13" min="1" max="5"/>
-    <col width="32.453125" customWidth="1" style="13" min="6" max="6"/>
+    <col width="12.6328125" customWidth="1" style="18" min="1" max="5"/>
+    <col width="32.453125" customWidth="1" style="18" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12524,7 +11837,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="43.5" customHeight="1" s="13">
+    <row r="4" ht="43.5" customHeight="1" s="18">
       <c r="A4" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12550,7 +11863,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="43.5" customHeight="1" s="13">
+    <row r="5" ht="43.5" customHeight="1" s="18">
       <c r="A5" t="inlineStr">
         <is>
           <t>PASSED</t>
@@ -12576,7 +11889,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1" s="13">
+    <row r="6" ht="43.5" customHeight="1" s="18">
       <c r="A6" t="inlineStr">
         <is>
           <t>PASSED</t>

--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25604"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viriyahinsurance-my.sharepoint.com/personal/niranl_viriyah_co_th/Documents/Desktop/PDPA/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_C09C02BDA793125F1AAE1ED64F6EBEA61960E6A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E65AC3-55C9-4CF8-B023-630B99D66260}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74EE40B-B802-42BA-B30F-AFD2F0D73024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollectionPointList" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,12 +22,24 @@
     <sheet name="UI" sheetId="8" r:id="rId7"/>
     <sheet name="HealthCheckReadiness" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="530">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -1903,6 +1915,114 @@
 (wrong format)</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>remenber</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>user.firstname</t>
+  </si>
+  <si>
+    <t>user.lastname</t>
+  </si>
+  <si>
+    <t>user.gender</t>
+  </si>
+  <si>
+    <t>user.birthdate</t>
+  </si>
+  <si>
+    <t>user.email</t>
+  </si>
+  <si>
+    <t>user.username</t>
+  </si>
+  <si>
+    <t>user.password</t>
+  </si>
+  <si>
+    <t>user.confirmpassword</t>
+  </si>
+  <si>
+    <t>user.status</t>
+  </si>
+  <si>
+    <t>user.department</t>
+  </si>
+  <si>
+    <t>UI1001_000</t>
+  </si>
+  <si>
+    <t>สร้าง User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
+  </si>
+  <si>
+    <t>sopawans@viriyah.co.th</t>
+  </si>
+  <si>
+    <t>Pass@0522</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>9/8/2022</t>
+  </si>
+  <si>
+    <t>niranl@viriyah.co.th</t>
+  </si>
+  <si>
+    <t>QATEST</t>
+  </si>
+  <si>
+    <t>Qwerty@0000</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>UI1001_001</t>
+  </si>
+  <si>
+    <t>แก้ไข User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>15/8/1990</t>
+  </si>
+  <si>
+    <t>UI1001_002</t>
+  </si>
+  <si>
+    <t>ลบ User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
     <t>{"Services":[{"Status":"Up","ServiceName":"DatabaseSql","Message":""}],"Status":"Up"}</t>
   </si>
   <si>
@@ -1921,42 +2041,6 @@
   <si>
     <t xml:space="preserve">Validate   การแสดงข้อมูลสถานะ โดย Empty value Parameter Header 
 - Authorization  </t>
-  </si>
-  <si>
-    <t>UI1001_000</t>
-  </si>
-  <si>
-    <t>สร้าง User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
-  </si>
-  <si>
-    <t>UI1001_001</t>
-  </si>
-  <si>
-    <t>แก้ไข User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
-  </si>
-  <si>
-    <t>UI1001_002</t>
-  </si>
-  <si>
-    <t>ลบ User ข้อมูลผู้ใช้งาน ได้สำเร็จ</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>remenber</t>
-  </si>
-  <si>
-    <t>sopawans@viriyah.co.th</t>
-  </si>
-  <si>
-    <t>Pass@0522</t>
-  </si>
-  <si>
-    <t>Pass@0523</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,8 +2129,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2078,13 +2174,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,18 +2237,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 100" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2421,13 +2545,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" style="17" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2604,13 +2728,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="12.6328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="52.90625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="37.36328125" style="17" customWidth="1"/>
+    <col min="1" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2632,11 +2756,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1">
+    <row r="4" spans="1:7" ht="29.1" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2696,7 +2820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1">
+    <row r="5" spans="1:7" ht="29.1" customHeight="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1">
+    <row r="6" spans="1:7" ht="29.1" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1">
+    <row r="7" spans="1:7" ht="29.1" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1">
+    <row r="8" spans="1:7" ht="29.1" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1">
+    <row r="9" spans="1:7" ht="29.1" customHeight="1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1">
+    <row r="10" spans="1:7" ht="29.1" customHeight="1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +3000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1">
+    <row r="14" spans="1:7" ht="29.1" customHeight="1">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2908,27 +3032,26 @@
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11:P12"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="59.453125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.36328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.90625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="31.08984375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="23.1796875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="26.54296875" style="17" customWidth="1"/>
-    <col min="16" max="16" width="25.26953125" style="17" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="20.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3328,7 +3451,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="58" customHeight="1">
+    <row r="12" spans="1:16" ht="57.95" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4508,7 +4631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="58" customHeight="1">
+    <row r="47" spans="1:16" ht="57.95" customHeight="1">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -4540,7 +4663,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="58" customHeight="1">
+    <row r="48" spans="1:16" ht="57.95" customHeight="1">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -4572,7 +4695,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="58" customHeight="1">
+    <row r="49" spans="1:16" ht="57.95" customHeight="1">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -4604,7 +4727,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="58" customHeight="1">
+    <row r="50" spans="1:16" ht="57.95" customHeight="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4668,7 +4791,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="58" customHeight="1">
+    <row r="52" spans="1:16" ht="57.95" customHeight="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4703,7 +4826,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="62.5" customHeight="1">
+    <row r="53" spans="1:16" ht="62.45" customHeight="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4861,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="58" customHeight="1">
+    <row r="54" spans="1:16" ht="57.95" customHeight="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4770,7 +4893,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="58" customHeight="1">
+    <row r="55" spans="1:16" ht="57.95" customHeight="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -4804,7 +4927,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" ht="58" customHeight="1">
+    <row r="56" spans="1:16" ht="57.95" customHeight="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4961,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="58" customHeight="1">
+    <row r="57" spans="1:16" ht="57.95" customHeight="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4872,7 +4995,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="58" customHeight="1">
+    <row r="58" spans="1:16" ht="57.95" customHeight="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +5029,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="58" customHeight="1">
+    <row r="59" spans="1:16" ht="57.95" customHeight="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4940,7 +5063,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="58" customHeight="1">
+    <row r="60" spans="1:16" ht="57.95" customHeight="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4974,7 +5097,7 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" ht="58" customHeight="1">
+    <row r="61" spans="1:16" ht="57.95" customHeight="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5131,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" ht="58" customHeight="1">
+    <row r="62" spans="1:16" ht="57.95" customHeight="1">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -5061,16 +5184,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="12.6328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="48.26953125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="5" customWidth="1"/>
-    <col min="8" max="11" width="14.6328125" style="17" customWidth="1"/>
-    <col min="12" max="26" width="8.7265625" style="17" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5140,7 +5262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29" customHeight="1">
+    <row r="3" spans="1:11" ht="29.1" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5160,7 +5282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" customHeight="1">
+    <row r="4" spans="1:11" ht="29.1" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" customHeight="1">
+    <row r="5" spans="1:11" ht="29.1" customHeight="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5200,7 +5322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29" customHeight="1">
+    <row r="6" spans="1:11" ht="29.1" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5220,7 +5342,7 @@
         <v>987654321</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" customHeight="1">
+    <row r="7" spans="1:11" ht="29.1" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5576,7 +5698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29" customHeight="1">
+    <row r="26" spans="1:11" ht="29.1" customHeight="1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -5593,7 +5715,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="29" customHeight="1">
+    <row r="27" spans="1:11" ht="29.1" customHeight="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29" customHeight="1">
+    <row r="28" spans="1:11" ht="29.1" customHeight="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5627,7 +5749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="29" customHeight="1">
+    <row r="29" spans="1:11" ht="29.1" customHeight="1">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5647,7 +5769,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29" customHeight="1">
+    <row r="30" spans="1:11" ht="29.1" customHeight="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5667,7 +5789,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="29" customHeight="1">
+    <row r="31" spans="1:11" ht="29.1" customHeight="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5687,7 +5809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="29" customHeight="1">
+    <row r="32" spans="1:11" ht="29.1" customHeight="1">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5707,7 +5829,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="29" customHeight="1">
+    <row r="33" spans="1:11" ht="29.1" customHeight="1">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5746,32 +5868,31 @@
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="48.26953125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="39.08984375" style="13" customWidth="1"/>
-    <col min="9" max="10" width="12.6328125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="24.453125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="17.81640625" style="17" customWidth="1"/>
-    <col min="17" max="18" width="12.6328125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="18.453125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="12.6328125" style="17" customWidth="1"/>
-    <col min="21" max="22" width="14.08984375" style="17" customWidth="1"/>
-    <col min="23" max="23" width="34.90625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="12.1796875" style="17" customWidth="1"/>
-    <col min="25" max="25" width="21.36328125" style="17" customWidth="1"/>
-    <col min="26" max="27" width="15.6328125" style="17" customWidth="1"/>
-    <col min="28" max="119" width="8.7265625" style="17" customWidth="1"/>
-    <col min="120" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="21.42578125" customWidth="1"/>
+    <col min="26" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="119" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1">
@@ -7462,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="29" customHeight="1">
+    <row r="23" spans="1:27" ht="29.1" customHeight="1">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7508,7 +7629,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" spans="1:27" ht="29" customHeight="1">
+    <row r="24" spans="1:27" ht="29.1" customHeight="1">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7554,7 +7675,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25" spans="1:27" ht="29" customHeight="1">
+    <row r="25" spans="1:27" ht="29.1" customHeight="1">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7600,7 +7721,7 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26" spans="1:27" ht="29" customHeight="1">
+    <row r="26" spans="1:27" ht="29.1" customHeight="1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -7632,7 +7753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="29" customHeight="1">
+    <row r="27" spans="1:27" ht="29.1" customHeight="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -7667,7 +7788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="29" customHeight="1">
+    <row r="28" spans="1:27" ht="29.1" customHeight="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -7702,7 +7823,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="29" customHeight="1">
+    <row r="29" spans="1:27" ht="29.1" customHeight="1">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7737,7 +7858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="29" customHeight="1">
+    <row r="30" spans="1:27" ht="29.1" customHeight="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -7772,7 +7893,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="29" customHeight="1">
+    <row r="31" spans="1:27" ht="29.1" customHeight="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7807,7 +7928,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="29" customHeight="1">
+    <row r="32" spans="1:27" ht="29.1" customHeight="1">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -7842,7 +7963,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="29" customHeight="1">
+    <row r="33" spans="1:27" ht="29.1" customHeight="1">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -7877,7 +7998,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="29" customHeight="1">
+    <row r="34" spans="1:27" ht="29.1" customHeight="1">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -7912,7 +8033,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="29" customHeight="1">
+    <row r="35" spans="1:27" ht="29.1" customHeight="1">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -7947,7 +8068,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="29" customHeight="1">
+    <row r="36" spans="1:27" ht="29.1" customHeight="1">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -7982,7 +8103,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="29" customHeight="1">
+    <row r="37" spans="1:27" ht="29.1" customHeight="1">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -8017,7 +8138,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="29" customHeight="1">
+    <row r="38" spans="1:27" ht="29.1" customHeight="1">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8052,7 +8173,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="29" customHeight="1">
+    <row r="39" spans="1:27" ht="29.1" customHeight="1">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8095,7 +8216,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="29" customHeight="1">
+    <row r="40" spans="1:27" ht="29.1" customHeight="1">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -8138,7 +8259,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="29" customHeight="1">
+    <row r="41" spans="1:27" ht="29.1" customHeight="1">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8179,7 +8300,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="29" customHeight="1">
+    <row r="42" spans="1:27" ht="29.1" customHeight="1">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -8223,7 +8344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="29" customHeight="1">
+    <row r="43" spans="1:27" ht="29.1" customHeight="1">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8267,7 +8388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="29" customHeight="1">
+    <row r="44" spans="1:27" ht="29.1" customHeight="1">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8311,7 +8432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="29" customHeight="1">
+    <row r="45" spans="1:27" ht="29.1" customHeight="1">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -8355,7 +8476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="29" customHeight="1">
+    <row r="46" spans="1:27" ht="29.1" customHeight="1">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8399,7 +8520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="29" customHeight="1">
+    <row r="47" spans="1:27" ht="29.1" customHeight="1">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8432,7 +8553,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="29" customHeight="1">
+    <row r="48" spans="1:27" ht="29.1" customHeight="1">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -8462,7 +8583,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="29" customHeight="1">
+    <row r="49" spans="1:23" ht="29.1" customHeight="1">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8500,7 +8621,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="29" customHeight="1">
+    <row r="50" spans="1:23" ht="29.1" customHeight="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8544,7 +8665,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="29" customHeight="1">
+    <row r="51" spans="1:23" ht="29.1" customHeight="1">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8588,7 +8709,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="29" customHeight="1">
+    <row r="52" spans="1:23" ht="29.1" customHeight="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8629,7 +8750,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="29" customHeight="1">
+    <row r="53" spans="1:23" ht="29.1" customHeight="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8670,7 +8791,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="29" customHeight="1">
+    <row r="54" spans="1:23" ht="29.1" customHeight="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8711,7 +8832,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="29" customHeight="1">
+    <row r="55" spans="1:23" ht="29.1" customHeight="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8755,7 +8876,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="29" customHeight="1">
+    <row r="56" spans="1:23" ht="29.1" customHeight="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8798,7 +8919,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="29" customHeight="1">
+    <row r="57" spans="1:23" ht="29.1" customHeight="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8841,7 +8962,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="29" customHeight="1">
+    <row r="58" spans="1:23" ht="29.1" customHeight="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8884,7 +9005,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="29" customHeight="1">
+    <row r="59" spans="1:23" ht="29.1" customHeight="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8927,7 +9048,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="29" customHeight="1">
+    <row r="60" spans="1:23" ht="29.1" customHeight="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -8970,7 +9091,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="29" customHeight="1">
+    <row r="61" spans="1:23" ht="29.1" customHeight="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -9013,7 +9134,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="29" customHeight="1">
+    <row r="62" spans="1:23" ht="29.1" customHeight="1">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -9056,7 +9177,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="29" customHeight="1">
+    <row r="63" spans="1:23" ht="29.1" customHeight="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9099,7 +9220,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="29" customHeight="1">
+    <row r="64" spans="1:23" ht="29.1" customHeight="1">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -9142,7 +9263,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="29" customHeight="1">
+    <row r="65" spans="1:27" ht="29.1" customHeight="1">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -9183,7 +9304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="29" customHeight="1">
+    <row r="66" spans="1:27" ht="29.1" customHeight="1">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -9227,7 +9348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="29" customHeight="1">
+    <row r="67" spans="1:27" ht="29.1" customHeight="1">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="29" customHeight="1">
+    <row r="68" spans="1:27" ht="29.1" customHeight="1">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="29" customHeight="1">
+    <row r="69" spans="1:27" ht="29.1" customHeight="1">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -9359,7 +9480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="29" customHeight="1">
+    <row r="70" spans="1:27" ht="29.1" customHeight="1">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -9403,7 +9524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="29" customHeight="1">
+    <row r="71" spans="1:27" ht="29.1" customHeight="1">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -9447,7 +9568,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="29" customHeight="1">
+    <row r="72" spans="1:27" ht="29.1" customHeight="1">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -9488,7 +9609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="29" customHeight="1">
+    <row r="73" spans="1:27" ht="29.1" customHeight="1">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -9529,7 +9650,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="29" customHeight="1">
+    <row r="74" spans="1:27" ht="29.1" customHeight="1">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -9570,7 +9691,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="29" customHeight="1">
+    <row r="75" spans="1:27" ht="29.1" customHeight="1">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -9614,7 +9735,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="29" customHeight="1">
+    <row r="76" spans="1:27" ht="29.1" customHeight="1">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -9658,7 +9779,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="29" customHeight="1">
+    <row r="77" spans="1:27" ht="29.1" customHeight="1">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -9702,7 +9823,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="29" customHeight="1">
+    <row r="78" spans="1:27" ht="29.1" customHeight="1">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -9746,7 +9867,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="29" customHeight="1">
+    <row r="79" spans="1:27" ht="29.1" customHeight="1">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -9790,7 +9911,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="29" customHeight="1">
+    <row r="80" spans="1:27" ht="29.1" customHeight="1">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -9833,7 +9954,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="29" customHeight="1">
+    <row r="81" spans="1:27" ht="29.1" customHeight="1">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -9876,7 +9997,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="29" customHeight="1">
+    <row r="82" spans="1:27" ht="29.1" customHeight="1">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -9919,7 +10040,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="29" customHeight="1">
+    <row r="83" spans="1:27" ht="29.1" customHeight="1">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -9962,7 +10083,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="29" customHeight="1">
+    <row r="84" spans="1:27" ht="29.1" customHeight="1">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10126,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="29" customHeight="1">
+    <row r="85" spans="1:27" ht="29.1" customHeight="1">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -10048,7 +10169,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="29" customHeight="1">
+    <row r="86" spans="1:27" ht="29.1" customHeight="1">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -10091,7 +10212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="29" customHeight="1">
+    <row r="87" spans="1:27" ht="29.1" customHeight="1">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -10134,7 +10255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="29" customHeight="1">
+    <row r="88" spans="1:27" ht="29.1" customHeight="1">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -10177,7 +10298,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="29" customHeight="1">
+    <row r="89" spans="1:27" ht="29.1" customHeight="1">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -10218,7 +10339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="29" customHeight="1">
+    <row r="90" spans="1:27" ht="29.1" customHeight="1">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -10262,7 +10383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="29" customHeight="1">
+    <row r="91" spans="1:27" ht="29.1" customHeight="1">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -10306,7 +10427,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="29" customHeight="1">
+    <row r="92" spans="1:27" ht="29.1" customHeight="1">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -10350,7 +10471,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="29" customHeight="1">
+    <row r="93" spans="1:27" ht="29.1" customHeight="1">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -10394,7 +10515,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="29" customHeight="1">
+    <row r="94" spans="1:27" ht="29.1" customHeight="1">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -10491,12 +10612,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="12.6328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="17" customWidth="1"/>
+    <col min="1" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10598,7 +10719,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58" customHeight="1">
+    <row r="7" spans="1:6" ht="57.95" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10622,92 +10743,210 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80CBABD-C2B8-4B0F-BE18-85DF635B2CE9}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" activeCellId="1" sqref="I1 I12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="12.6328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" style="17" customWidth="1"/>
-    <col min="8" max="9" width="12.6328125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:22" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="T1" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="U1" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15">
+      <c r="E2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="E2" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" t="s">
         <v>503</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="G2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="H2" t="s">
         <v>505</v>
       </c>
-      <c r="I3" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>499</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M2" t="s">
+        <v>509</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="P2" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>513</v>
+      </c>
+      <c r="R2" t="s">
+        <v>513</v>
+      </c>
+      <c r="S2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15">
+      <c r="E3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L3" t="s">
+        <v>508</v>
+      </c>
+      <c r="M3" t="s">
+        <v>519</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="S3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15">
+      <c r="E4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
+        <v>505</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>523</v>
+      </c>
+      <c r="K4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L4" t="s">
+        <v>508</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="S4" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -10716,7 +10955,10 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A07749D2-6FEF-4918-BFF8-C0960A92A5C5}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{3197D8C0-0482-4948-A465-E2E696CBB802}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{17C97212-0E34-4451-95AE-C826A0C6C8A9}"/>
-    <hyperlink ref="H3" r:id="rId4" display="Pass@0522" xr:uid="{069C6A88-9833-4DBF-9EEA-213C1593CFE6}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{FC9BBA5B-1620-4A2A-8E62-BC3F9F4FE3FF}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{EFF16678-2A36-4963-AF7F-959562FC905B}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{77F56E2E-EBA7-4DC8-9932-06618530CA2A}"/>
+    <hyperlink ref="O2" r:id="rId7" xr:uid="{4C6F223F-7445-4757-BDC9-FA9053F65C86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10730,10 +10972,10 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="5" width="12.6328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="32.453125" style="17" customWidth="1"/>
+    <col min="1" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10764,7 +11006,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
         <v>476</v>
@@ -10781,10 +11023,10 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="E3" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -10804,7 +11046,7 @@
         <v>482</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" customHeight="1">
@@ -10818,10 +11060,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" customHeight="1">

--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viriyahinsurance-my.sharepoint.com/personal/niranl_viriyah_co_th/Documents/Desktop/PDPA/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74EE40B-B802-42BA-B30F-AFD2F0D73024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B74EE40B-B802-42BA-B30F-AFD2F0D73024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96A4DDE-32C8-4EA5-8630-0C8CC7269890}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="533">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -2041,6 +2041,15 @@
   <si>
     <t xml:space="preserve">Validate   การแสดงข้อมูลสถานะ โดย Empty value Parameter Header 
 - Authorization  </t>
+  </si>
+  <si>
+    <t>user.position</t>
+  </si>
+  <si>
+    <t>user.workstart</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -2260,8 +2269,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 100" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2545,13 +2554,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="1" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2728,13 +2737,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="1" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="52.81640625" customWidth="1"/>
+    <col min="7" max="7" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2760,7 +2769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.1" customHeight="1">
+    <row r="4" spans="1:7" ht="29.15" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.1" customHeight="1">
+    <row r="5" spans="1:7" ht="29.15" customHeight="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.1" customHeight="1">
+    <row r="6" spans="1:7" ht="29.15" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.1" customHeight="1">
+    <row r="7" spans="1:7" ht="29.15" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.1" customHeight="1">
+    <row r="8" spans="1:7" ht="29.15" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.1" customHeight="1">
+    <row r="9" spans="1:7" ht="29.15" customHeight="1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.1" customHeight="1">
+    <row r="10" spans="1:7" ht="29.15" customHeight="1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.1" customHeight="1">
+    <row r="14" spans="1:7" ht="29.15" customHeight="1">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3032,26 +3041,26 @@
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="K11" sqref="K11:P12"/>
-      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="20.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="1" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="59.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="20.453125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" customWidth="1"/>
+    <col min="13" max="13" width="31.1796875" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" customWidth="1"/>
+    <col min="16" max="16" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3451,7 +3460,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="57.95" customHeight="1">
+    <row r="12" spans="1:16" ht="58" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="57.95" customHeight="1">
+    <row r="47" spans="1:16" ht="58" customHeight="1">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4672,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="57.95" customHeight="1">
+    <row r="48" spans="1:16" ht="58" customHeight="1">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -4695,7 +4704,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="57.95" customHeight="1">
+    <row r="49" spans="1:16" ht="58" customHeight="1">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -4727,7 +4736,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="57.95" customHeight="1">
+    <row r="50" spans="1:16" ht="58" customHeight="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4800,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="57.95" customHeight="1">
+    <row r="52" spans="1:16" ht="58" customHeight="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4826,7 +4835,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="62.45" customHeight="1">
+    <row r="53" spans="1:16" ht="62.5" customHeight="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +4870,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="57.95" customHeight="1">
+    <row r="54" spans="1:16" ht="58" customHeight="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4893,7 +4902,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="57.95" customHeight="1">
+    <row r="55" spans="1:16" ht="58" customHeight="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -4927,7 +4936,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" ht="57.95" customHeight="1">
+    <row r="56" spans="1:16" ht="58" customHeight="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -4961,7 +4970,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="57.95" customHeight="1">
+    <row r="57" spans="1:16" ht="58" customHeight="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4995,7 +5004,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="57.95" customHeight="1">
+    <row r="58" spans="1:16" ht="58" customHeight="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5029,7 +5038,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="57.95" customHeight="1">
+    <row r="59" spans="1:16" ht="58" customHeight="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5063,7 +5072,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="57.95" customHeight="1">
+    <row r="60" spans="1:16" ht="58" customHeight="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -5097,7 +5106,7 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" ht="57.95" customHeight="1">
+    <row r="61" spans="1:16" ht="58" customHeight="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5140,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" ht="57.95" customHeight="1">
+    <row r="62" spans="1:16" ht="58" customHeight="1">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -5184,15 +5193,15 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
-    <col min="8" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="48.26953125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="5" customWidth="1"/>
+    <col min="8" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5262,7 +5271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
+    <row r="3" spans="1:11" ht="29.15" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5282,7 +5291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29.1" customHeight="1">
+    <row r="4" spans="1:11" ht="29.15" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5302,7 +5311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.1" customHeight="1">
+    <row r="5" spans="1:11" ht="29.15" customHeight="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5322,7 +5331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.1" customHeight="1">
+    <row r="6" spans="1:11" ht="29.15" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>987654321</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.1" customHeight="1">
+    <row r="7" spans="1:11" ht="29.15" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5698,7 +5707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29.1" customHeight="1">
+    <row r="26" spans="1:11" ht="29.15" customHeight="1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="29.1" customHeight="1">
+    <row r="27" spans="1:11" ht="29.15" customHeight="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29.1" customHeight="1">
+    <row r="28" spans="1:11" ht="29.15" customHeight="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="29.1" customHeight="1">
+    <row r="29" spans="1:11" ht="29.15" customHeight="1">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29.1" customHeight="1">
+    <row r="30" spans="1:11" ht="29.15" customHeight="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5789,7 +5798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="29.1" customHeight="1">
+    <row r="31" spans="1:11" ht="29.15" customHeight="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="29.1" customHeight="1">
+    <row r="32" spans="1:11" ht="29.15" customHeight="1">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5829,7 +5838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="29.1" customHeight="1">
+    <row r="33" spans="1:11" ht="29.15" customHeight="1">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -5868,31 +5877,31 @@
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="34.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="21.42578125" customWidth="1"/>
-    <col min="26" max="27" width="15.5703125" customWidth="1"/>
-    <col min="28" max="119" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="48.26953125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="39.1796875" style="13" customWidth="1"/>
+    <col min="9" max="10" width="12.54296875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="24.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" customWidth="1"/>
+    <col min="16" max="16" width="17.81640625" customWidth="1"/>
+    <col min="17" max="18" width="12.54296875" customWidth="1"/>
+    <col min="19" max="19" width="18.453125" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" customWidth="1"/>
+    <col min="21" max="22" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="34.81640625" customWidth="1"/>
+    <col min="24" max="24" width="12.1796875" customWidth="1"/>
+    <col min="25" max="25" width="21.453125" customWidth="1"/>
+    <col min="26" max="27" width="15.54296875" customWidth="1"/>
+    <col min="28" max="119" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="14" customFormat="1">
@@ -7583,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="29.1" customHeight="1">
+    <row r="23" spans="1:27" ht="29.15" customHeight="1">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7629,7 +7638,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" spans="1:27" ht="29.1" customHeight="1">
+    <row r="24" spans="1:27" ht="29.15" customHeight="1">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7675,7 +7684,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25" spans="1:27" ht="29.1" customHeight="1">
+    <row r="25" spans="1:27" ht="29.15" customHeight="1">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7721,7 +7730,7 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26" spans="1:27" ht="29.1" customHeight="1">
+    <row r="26" spans="1:27" ht="29.15" customHeight="1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -7753,7 +7762,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="29.1" customHeight="1">
+    <row r="27" spans="1:27" ht="29.15" customHeight="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -7788,7 +7797,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="29.1" customHeight="1">
+    <row r="28" spans="1:27" ht="29.15" customHeight="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -7823,7 +7832,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="29.1" customHeight="1">
+    <row r="29" spans="1:27" ht="29.15" customHeight="1">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7858,7 +7867,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="29.1" customHeight="1">
+    <row r="30" spans="1:27" ht="29.15" customHeight="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -7893,7 +7902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="29.1" customHeight="1">
+    <row r="31" spans="1:27" ht="29.15" customHeight="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -7928,7 +7937,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="29.1" customHeight="1">
+    <row r="32" spans="1:27" ht="29.15" customHeight="1">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -7963,7 +7972,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="29.1" customHeight="1">
+    <row r="33" spans="1:27" ht="29.15" customHeight="1">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +8007,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="29.1" customHeight="1">
+    <row r="34" spans="1:27" ht="29.15" customHeight="1">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -8033,7 +8042,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="29.1" customHeight="1">
+    <row r="35" spans="1:27" ht="29.15" customHeight="1">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -8068,7 +8077,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="29.1" customHeight="1">
+    <row r="36" spans="1:27" ht="29.15" customHeight="1">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -8103,7 +8112,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="29.1" customHeight="1">
+    <row r="37" spans="1:27" ht="29.15" customHeight="1">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -8138,7 +8147,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="29.1" customHeight="1">
+    <row r="38" spans="1:27" ht="29.15" customHeight="1">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +8182,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="29.1" customHeight="1">
+    <row r="39" spans="1:27" ht="29.15" customHeight="1">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8216,7 +8225,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="29.1" customHeight="1">
+    <row r="40" spans="1:27" ht="29.15" customHeight="1">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -8259,7 +8268,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="29.1" customHeight="1">
+    <row r="41" spans="1:27" ht="29.15" customHeight="1">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8300,7 +8309,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="29.1" customHeight="1">
+    <row r="42" spans="1:27" ht="29.15" customHeight="1">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="29.1" customHeight="1">
+    <row r="43" spans="1:27" ht="29.15" customHeight="1">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8388,7 +8397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="29.1" customHeight="1">
+    <row r="44" spans="1:27" ht="29.15" customHeight="1">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="29.1" customHeight="1">
+    <row r="45" spans="1:27" ht="29.15" customHeight="1">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -8476,7 +8485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="29.1" customHeight="1">
+    <row r="46" spans="1:27" ht="29.15" customHeight="1">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="29.1" customHeight="1">
+    <row r="47" spans="1:27" ht="29.15" customHeight="1">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8553,7 +8562,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="29.1" customHeight="1">
+    <row r="48" spans="1:27" ht="29.15" customHeight="1">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -8583,7 +8592,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="29.1" customHeight="1">
+    <row r="49" spans="1:23" ht="29.15" customHeight="1">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8621,7 +8630,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="29.1" customHeight="1">
+    <row r="50" spans="1:23" ht="29.15" customHeight="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8665,7 +8674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="29.1" customHeight="1">
+    <row r="51" spans="1:23" ht="29.15" customHeight="1">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8709,7 +8718,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="29.1" customHeight="1">
+    <row r="52" spans="1:23" ht="29.15" customHeight="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8750,7 +8759,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="29.1" customHeight="1">
+    <row r="53" spans="1:23" ht="29.15" customHeight="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8791,7 +8800,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="29.1" customHeight="1">
+    <row r="54" spans="1:23" ht="29.15" customHeight="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8832,7 +8841,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="29.1" customHeight="1">
+    <row r="55" spans="1:23" ht="29.15" customHeight="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8876,7 +8885,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="29.1" customHeight="1">
+    <row r="56" spans="1:23" ht="29.15" customHeight="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8919,7 +8928,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="29.1" customHeight="1">
+    <row r="57" spans="1:23" ht="29.15" customHeight="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8962,7 +8971,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="29.1" customHeight="1">
+    <row r="58" spans="1:23" ht="29.15" customHeight="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="29.1" customHeight="1">
+    <row r="59" spans="1:23" ht="29.15" customHeight="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -9048,7 +9057,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="29.1" customHeight="1">
+    <row r="60" spans="1:23" ht="29.15" customHeight="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -9091,7 +9100,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="29.1" customHeight="1">
+    <row r="61" spans="1:23" ht="29.15" customHeight="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -9134,7 +9143,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="29.1" customHeight="1">
+    <row r="62" spans="1:23" ht="29.15" customHeight="1">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -9177,7 +9186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="29.1" customHeight="1">
+    <row r="63" spans="1:23" ht="29.15" customHeight="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9220,7 +9229,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="29.1" customHeight="1">
+    <row r="64" spans="1:23" ht="29.15" customHeight="1">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -9263,7 +9272,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="29.1" customHeight="1">
+    <row r="65" spans="1:27" ht="29.15" customHeight="1">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -9304,7 +9313,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="29.1" customHeight="1">
+    <row r="66" spans="1:27" ht="29.15" customHeight="1">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -9348,7 +9357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="29.1" customHeight="1">
+    <row r="67" spans="1:27" ht="29.15" customHeight="1">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="29.1" customHeight="1">
+    <row r="68" spans="1:27" ht="29.15" customHeight="1">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -9436,7 +9445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="29.1" customHeight="1">
+    <row r="69" spans="1:27" ht="29.15" customHeight="1">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -9480,7 +9489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="29.1" customHeight="1">
+    <row r="70" spans="1:27" ht="29.15" customHeight="1">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -9524,7 +9533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="29.1" customHeight="1">
+    <row r="71" spans="1:27" ht="29.15" customHeight="1">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -9568,7 +9577,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="29.1" customHeight="1">
+    <row r="72" spans="1:27" ht="29.15" customHeight="1">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -9609,7 +9618,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="29.1" customHeight="1">
+    <row r="73" spans="1:27" ht="29.15" customHeight="1">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -9650,7 +9659,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="29.1" customHeight="1">
+    <row r="74" spans="1:27" ht="29.15" customHeight="1">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -9691,7 +9700,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="29.1" customHeight="1">
+    <row r="75" spans="1:27" ht="29.15" customHeight="1">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -9735,7 +9744,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="29.1" customHeight="1">
+    <row r="76" spans="1:27" ht="29.15" customHeight="1">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -9779,7 +9788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="29.1" customHeight="1">
+    <row r="77" spans="1:27" ht="29.15" customHeight="1">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -9823,7 +9832,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="29.1" customHeight="1">
+    <row r="78" spans="1:27" ht="29.15" customHeight="1">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -9867,7 +9876,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="29.1" customHeight="1">
+    <row r="79" spans="1:27" ht="29.15" customHeight="1">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -9911,7 +9920,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="29.1" customHeight="1">
+    <row r="80" spans="1:27" ht="29.15" customHeight="1">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -9954,7 +9963,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="29.1" customHeight="1">
+    <row r="81" spans="1:27" ht="29.15" customHeight="1">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -9997,7 +10006,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="29.1" customHeight="1">
+    <row r="82" spans="1:27" ht="29.15" customHeight="1">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -10040,7 +10049,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="29.1" customHeight="1">
+    <row r="83" spans="1:27" ht="29.15" customHeight="1">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -10083,7 +10092,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="29.1" customHeight="1">
+    <row r="84" spans="1:27" ht="29.15" customHeight="1">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -10126,7 +10135,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="29.1" customHeight="1">
+    <row r="85" spans="1:27" ht="29.15" customHeight="1">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -10169,7 +10178,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="29.1" customHeight="1">
+    <row r="86" spans="1:27" ht="29.15" customHeight="1">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -10212,7 +10221,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="29.1" customHeight="1">
+    <row r="87" spans="1:27" ht="29.15" customHeight="1">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -10255,7 +10264,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="29.1" customHeight="1">
+    <row r="88" spans="1:27" ht="29.15" customHeight="1">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -10298,7 +10307,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="29.1" customHeight="1">
+    <row r="89" spans="1:27" ht="29.15" customHeight="1">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -10339,7 +10348,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="29.1" customHeight="1">
+    <row r="90" spans="1:27" ht="29.15" customHeight="1">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -10383,7 +10392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="29.1" customHeight="1">
+    <row r="91" spans="1:27" ht="29.15" customHeight="1">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -10427,7 +10436,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="29.1" customHeight="1">
+    <row r="92" spans="1:27" ht="29.15" customHeight="1">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -10471,7 +10480,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="29.1" customHeight="1">
+    <row r="93" spans="1:27" ht="29.15" customHeight="1">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -10515,7 +10524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="29.1" customHeight="1">
+    <row r="94" spans="1:27" ht="29.15" customHeight="1">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -10612,12 +10621,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10719,7 +10728,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.95" customHeight="1">
+    <row r="7" spans="1:6" ht="58" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10746,27 +10755,29 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="1" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.26953125" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10828,13 +10839,13 @@
         <v>501</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="E2" t="s">
         <v>502</v>
       </c>
@@ -10880,8 +10891,14 @@
       <c r="S2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15">
+      <c r="T2" t="s">
+        <v>532</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="E3" t="s">
         <v>515</v>
       </c>
@@ -10918,8 +10935,14 @@
       <c r="S3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15">
+      <c r="T3" t="s">
+        <v>532</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="E4" t="s">
         <v>521</v>
       </c>
@@ -10972,10 +10995,10 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="1" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
+++ b/TestResource/DataTest/Excel_Script/PDPA_Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viriyahinsurance-my.sharepoint.com/personal/niranl_viriyah_co_th/Documents/Desktop/PDPA/TestResource/DataTest/Excel_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_2C76D189569A26947F09C356A76462707515E5B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327FA6FE-3CB5-404E-B255-DFB960ECE58D}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_2C76D189569A26947F09C356A76462707515E5B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{959183B3-1DD2-4CE0-8A36-06DCC3A3C319}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="641">
   <si>
     <t xml:space="preserve"> TestResult</t>
   </si>
@@ -2331,6 +2331,66 @@
   </si>
   <si>
     <t>search</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>TITLE-001</t>
+  </si>
+  <si>
+    <t>TITLE-002</t>
+  </si>
+  <si>
+    <t>TITLE-003</t>
+  </si>
+  <si>
+    <t>TITLE-004</t>
+  </si>
+  <si>
+    <t>TITLE-005</t>
+  </si>
+  <si>
+    <t>TITLE-006</t>
+  </si>
+  <si>
+    <t>TITLE-007</t>
+  </si>
+  <si>
+    <t>TITLE-008</t>
+  </si>
+  <si>
+    <t>TITLE-009</t>
+  </si>
+  <si>
+    <t>นาง (Mrs.)</t>
+  </si>
+  <si>
+    <t>นางสาว (Miss.)</t>
+  </si>
+  <si>
+    <t>นาย (Mr.)</t>
+  </si>
+  <si>
+    <t>ดอกเตอร์ (Doctor)</t>
+  </si>
+  <si>
+    <t>ศาสตราจารย์ (Professor)</t>
+  </si>
+  <si>
+    <t>ผู้ช่วยศาสตราจารย์ (Assistant Professor)</t>
+  </si>
+  <si>
+    <t>รองศาสตราจารย์ (Associate Professor)</t>
+  </si>
+  <si>
+    <t>user.title</t>
+  </si>
+  <si>
+    <t>หม่อมเจ้า	Mom Chao (M.C.)</t>
+  </si>
+  <si>
+    <t>หม่อมราชวงศ์	Mom Rajawong (M.R.)</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2617,6 +2677,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11286,10 +11349,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -11300,29 +11363,30 @@
     <col min="6" max="6" width="33.7265625" customWidth="1"/>
     <col min="7" max="7" width="24.81640625" customWidth="1"/>
     <col min="8" max="9" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="16" max="16" width="20.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="17.26953125" customWidth="1"/>
-    <col min="21" max="21" width="12.81640625" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" customWidth="1"/>
-    <col min="23" max="23" width="15.54296875" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" customWidth="1"/>
-    <col min="25" max="25" width="11.81640625" customWidth="1"/>
-    <col min="26" max="28" width="15.6328125" customWidth="1"/>
-    <col min="29" max="29" width="22.7265625" customWidth="1"/>
-    <col min="30" max="30" width="10.90625" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" customWidth="1"/>
-    <col min="32" max="32" width="15.1796875" customWidth="1"/>
-    <col min="33" max="33" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="20.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="17.81640625" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" customWidth="1"/>
+    <col min="22" max="22" width="12.81640625" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" customWidth="1"/>
+    <col min="27" max="29" width="15.6328125" customWidth="1"/>
+    <col min="30" max="30" width="22.7265625" customWidth="1"/>
+    <col min="31" max="31" width="10.90625" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" customWidth="1"/>
+    <col min="33" max="33" width="15.1796875" customWidth="1"/>
+    <col min="34" max="34" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1">
+    <row r="1" spans="1:36" ht="15" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11357,79 +11421,82 @@
         <v>620</v>
       </c>
       <c r="L1" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AG1" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AH1" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AI1" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="E2" t="s">
         <v>516</v>
       </c>
@@ -11449,43 +11516,46 @@
         <v>520</v>
       </c>
       <c r="L2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M2" t="s">
         <v>521</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>522</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>523</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>527</v>
       </c>
       <c r="S2" t="s">
         <v>527</v>
       </c>
       <c r="T2" t="s">
+        <v>527</v>
+      </c>
+      <c r="U2" t="s">
         <v>606</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>612</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>616</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="E3" t="s">
         <v>528</v>
       </c>
@@ -11508,28 +11578,31 @@
         <v>521</v>
       </c>
       <c r="L3" t="s">
+        <v>637</v>
+      </c>
+      <c r="M3" t="s">
         <v>531</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>522</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>532</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>607</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="X3" s="23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="E4" t="s">
         <v>534</v>
       </c>
@@ -11551,15 +11624,15 @@
       <c r="K4" t="s">
         <v>531</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>531</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>522</v>
       </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="E5" t="s">
         <v>537</v>
       </c>
@@ -11578,14 +11651,14 @@
       <c r="J5" t="s">
         <v>520</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>538</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="E6" t="s">
         <v>540</v>
       </c>
@@ -11607,14 +11680,14 @@
       <c r="K6" t="s">
         <v>538</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>541</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="E7" t="s">
         <v>543</v>
       </c>
@@ -11637,7 +11710,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="E8" t="s">
         <v>544</v>
       </c>
@@ -11656,14 +11729,14 @@
       <c r="J8" t="s">
         <v>520</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>545</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="E9" t="s">
         <v>547</v>
       </c>
@@ -11685,14 +11758,14 @@
       <c r="K9" t="s">
         <v>545</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>560</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="E10" t="s">
         <v>549</v>
       </c>
@@ -11715,7 +11788,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="E11" t="s">
         <v>566</v>
       </c>
@@ -11734,20 +11807,20 @@
       <c r="J11" t="s">
         <v>520</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>550</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>551</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>552</v>
       </c>
       <c r="AE11" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AF11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="E12" t="s">
         <v>568</v>
       </c>
@@ -11766,20 +11839,20 @@
       <c r="J12" t="s">
         <v>530</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>550</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>551</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>553</v>
       </c>
       <c r="AE12" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AF12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
         <v>570</v>
       </c>
@@ -11798,11 +11871,11 @@
       <c r="J13" t="s">
         <v>536</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36">
       <c r="E14" t="s">
         <v>572</v>
       </c>
@@ -11821,17 +11894,17 @@
       <c r="J14" t="s">
         <v>520</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AG14" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>594</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="E15" t="s">
         <v>574</v>
       </c>
@@ -11850,17 +11923,17 @@
       <c r="J15" t="s">
         <v>530</v>
       </c>
-      <c r="AF15" s="12" t="s">
+      <c r="AG15" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>596</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="E16" t="s">
         <v>598</v>
       </c>
@@ -11879,9 +11952,9 @@
       <c r="J16" t="s">
         <v>536</v>
       </c>
-      <c r="AF16" s="12"/>
-    </row>
-    <row r="17" spans="5:35">
+      <c r="AG16" s="12"/>
+    </row>
+    <row r="17" spans="5:36">
       <c r="E17" t="s">
         <v>576</v>
       </c>
@@ -11900,14 +11973,14 @@
       <c r="J17" t="s">
         <v>520</v>
       </c>
-      <c r="AF17" s="12" t="s">
+      <c r="AG17" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="5:35">
+    <row r="18" spans="5:36">
       <c r="E18" t="s">
         <v>578</v>
       </c>
@@ -11926,14 +11999,14 @@
       <c r="J18" t="s">
         <v>530</v>
       </c>
-      <c r="AF18" s="12" t="s">
+      <c r="AG18" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="5:35">
+    <row r="19" spans="5:36">
       <c r="E19" t="s">
         <v>580</v>
       </c>
@@ -11949,11 +12022,11 @@
       <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="5:35">
+    <row r="20" spans="5:36">
       <c r="E20" t="s">
         <v>582</v>
       </c>
@@ -11972,11 +12045,11 @@
       <c r="J20" t="s">
         <v>603</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="5:35">
+    <row r="21" spans="5:36">
       <c r="E21" t="s">
         <v>584</v>
       </c>
@@ -11993,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:35">
+    <row r="22" spans="5:36">
       <c r="E22" t="s">
         <v>586</v>
       </c>
@@ -12009,26 +12082,26 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="AF22" s="12" t="s">
+      <c r="AG22" s="12" t="s">
         <v>589</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{73A29FCF-F14F-40E8-A825-55DB2ABC5BA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{73A29FCF-F14F-40E8-A825-55DB2ABC5BA4}">
       <formula1>Department</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO1 V10" xr:uid="{1C729BEE-8EA8-40A8-AEBD-73152BAE5121}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP1 W10" xr:uid="{1C729BEE-8EA8-40A8-AEBD-73152BAE5121}">
       <formula1>PositionIT</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{78DA2B10-8742-4FC3-B2A7-4367C93E85DF}">
-      <formula1>IF($U$2="IT-001",PositionIT,IF($U$2="ฝ่ายรับประกันภัย",Position))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{78DA2B10-8742-4FC3-B2A7-4367C93E85DF}">
+      <formula1>IF($V$2="IT-001",PositionIT,IF($V$2="ฝ่ายรับประกันภัย",Position))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
     <hyperlink ref="H3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
     <hyperlink ref="H4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
     <hyperlink ref="H5" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
@@ -12068,30 +12141,30 @@
     <hyperlink ref="H22" r:id="rId39" xr:uid="{FB419AD0-FC31-4B6F-BE96-B0E1664FEB96}"/>
     <hyperlink ref="G21" r:id="rId40" xr:uid="{0AD32094-3359-4E1B-B3B4-45691004CDA4}"/>
     <hyperlink ref="G22" r:id="rId41" xr:uid="{FDA68A62-C74A-40CC-AEA7-D409C28A2982}"/>
-    <hyperlink ref="AF15" r:id="rId42" display="https://viriyah.my.salesforce.com/" xr:uid="{5BE7FB30-3AD8-4A27-A231-932386D8B450}"/>
-    <hyperlink ref="AF14" r:id="rId43" xr:uid="{11203408-3170-4205-873A-0D80EC2BBDB1}"/>
+    <hyperlink ref="AG15" r:id="rId42" display="https://viriyah.my.salesforce.com/" xr:uid="{5BE7FB30-3AD8-4A27-A231-932386D8B450}"/>
+    <hyperlink ref="AG14" r:id="rId43" xr:uid="{11203408-3170-4205-873A-0D80EC2BBDB1}"/>
     <hyperlink ref="H16" r:id="rId44" xr:uid="{FFB4BFC4-3974-45D6-BB40-27FB79586A62}"/>
     <hyperlink ref="G16" r:id="rId45" xr:uid="{A74FD450-C44E-47EB-A5E4-5E1988077D77}"/>
-    <hyperlink ref="AF22" r:id="rId46" display="https://viriyah.my.salesforce.com/" xr:uid="{825EAD87-0DDB-4A8A-A1A5-EDEFE7E16240}"/>
-    <hyperlink ref="AF17" r:id="rId47" display="https://viriyah.my.salesforce.com/" xr:uid="{B37C8843-52E9-4F14-9FA8-A53C3ABB9216}"/>
-    <hyperlink ref="AF18" r:id="rId48" display="https://viriyah.my.salesforce.com/" xr:uid="{8EFDD85F-BD91-4DB6-99C0-55D1431C49AD}"/>
+    <hyperlink ref="AG22" r:id="rId46" display="https://viriyah.my.salesforce.com/" xr:uid="{825EAD87-0DDB-4A8A-A1A5-EDEFE7E16240}"/>
+    <hyperlink ref="AG17" r:id="rId47" display="https://viriyah.my.salesforce.com/" xr:uid="{B37C8843-52E9-4F14-9FA8-A53C3ABB9216}"/>
+    <hyperlink ref="AG18" r:id="rId48" display="https://viriyah.my.salesforce.com/" xr:uid="{8EFDD85F-BD91-4DB6-99C0-55D1431C49AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E24F3511-B131-4EEE-B8DA-D6931D1DB0BC}">
           <x14:formula1>
             <xm:f>list!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AF14</xm:sqref>
+          <xm:sqref>AG14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E8F59C1-2F20-45B3-9657-30A98BA7D181}">
           <x14:formula1>
             <xm:f>list!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AF15:AF18 AF22</xm:sqref>
+          <xm:sqref>AG15:AG18 AG22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A6A9D11-4A2D-4918-BD28-A4FBEAFBD46F}">
           <x14:formula1>
@@ -12103,7 +12176,13 @@
           <x14:formula1>
             <xm:f>list!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T3</xm:sqref>
+          <xm:sqref>U2:U3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BCE12FD-A1C7-4CC2-9B10-98B24A09AA09}">
+          <x14:formula1>
+            <xm:f>list!$L$2:$L$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12113,20 +12192,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD9968-9ECF-4E36-B423-A27A2C28E9E2}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="28" t="s">
         <v>590</v>
       </c>
@@ -12145,8 +12224,12 @@
       <c r="I1" s="28" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="27" t="s">
         <v>588</v>
       </c>
@@ -12165,8 +12248,14 @@
       <c r="I2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>622</v>
+      </c>
+      <c r="L2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="27" t="s">
         <v>589</v>
       </c>
@@ -12182,8 +12271,14 @@
       <c r="H3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="s">
+        <v>623</v>
+      </c>
+      <c r="L3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="27" t="s">
         <v>296</v>
       </c>
@@ -12199,16 +12294,71 @@
       <c r="H4" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="C5" t="s">
         <v>603</v>
       </c>
       <c r="E5" t="s">
         <v>609</v>
       </c>
+      <c r="K5" t="s">
+        <v>625</v>
+      </c>
+      <c r="L5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="K6" t="s">
+        <v>626</v>
+      </c>
+      <c r="L6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="K7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="K8" t="s">
+        <v>628</v>
+      </c>
+      <c r="L8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="K9" t="s">
+        <v>629</v>
+      </c>
+      <c r="L9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="K10" t="s">
+        <v>630</v>
+      </c>
+      <c r="L10" t="s">
+        <v>639</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12336,250 +12486,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100829EB37831B7E447AFA810CB7011F31A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c17f0d54de21b78e7d5c104b7f4efa1f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd4bef2-8709-472e-a8c0-4bbd4d71fc55" xmlns:ns3="83583ea7-caa6-4985-894e-245720fbd15d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8d6cc17c245bde51ecbf7662441f1a1" ns2:_="" ns3:_="">
-    <xsd:import namespace="9fd4bef2-8709-472e-a8c0-4bbd4d71fc55"/>
-    <xsd:import namespace="83583ea7-caa6-4985-894e-245720fbd15d"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9fd4bef2-8709-472e-a8c0-4bbd4d71fc55" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d67d4afd-bf16-4129-a703-e6980967e627" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="83583ea7-caa6-4985-894e-245720fbd15d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{55b83708-81dd-49a0-a7dc-d6f4893d509c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="83583ea7-caa6-4985-894e-245720fbd15d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B903E43B-F5BA-434C-8375-4152D6970FCA}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71E000AD-9D04-41C7-A41C-37B15A2C62B8}"/>
 </file>